--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -185,7 +185,7 @@
     <t xml:space="preserve">...</t>
   </si>
   <si>
-    <t xml:space="preserve">this is a temporary branch for testing purposes</t>
+    <t xml:space="preserve">this is a temporary branch for theme testing</t>
   </si>
   <si>
     <t xml:space="preserve">  ...</t>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$76</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$76</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$77</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$77</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
   </si>
   <si>
     <t xml:space="preserve">Comment</t>
@@ -374,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -399,10 +402,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,10 +411,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -433,10 +428,6 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -560,63 +551,63 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="n">
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <f aca="false">E3+E12+E17+E19</f>
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="7" t="n">
         <f aca="false">F3+F12+F17+F19</f>
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="7" t="n">
         <f aca="false">G3+G12+G17+G19</f>
         <v>27</v>
       </c>
@@ -630,29 +621,27 @@
       <c r="P2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="E3" s="11" t="n">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="E3" s="9" t="n">
         <f aca="false">E4+E6+E8+E10</f>
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="9" t="n">
         <f aca="false">F4+F6+F8+F10</f>
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="9" t="n">
         <f aca="false">G4+G6+G8+G10</f>
         <v>13</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
@@ -660,32 +649,32 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="n">
         <f aca="false">E5</f>
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="10" t="n">
         <f aca="false">F5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="10" t="n">
         <f aca="false">G5</f>
         <v>2</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="10" t="n">
         <f aca="false">(E4+4*F4+G4)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J4" s="12" t="n">
+      <c r="J4" s="10" t="n">
         <f aca="false">(G4-E4)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="10" t="n">
         <f aca="false">J4*J4</f>
         <v>0.0277777777777778</v>
       </c>
@@ -695,21 +684,21 @@
       <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14" t="n">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="0"/>
@@ -725,32 +714,32 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="n">
         <f aca="false">E7</f>
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="10" t="n">
         <f aca="false">F7</f>
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="10" t="n">
         <f aca="false">G7</f>
         <v>4</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="10" t="n">
         <f aca="false">(E6+4*F6+G6)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="10" t="n">
         <f aca="false">(G6-E6)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="10" t="n">
         <f aca="false">J6*J6</f>
         <v>0.25</v>
       </c>
@@ -760,21 +749,21 @@
       <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="14" t="n">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H7" s="0"/>
@@ -790,32 +779,32 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="n">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="n">
         <f aca="false">E9</f>
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="10" t="n">
         <f aca="false">F9</f>
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="10" t="n">
         <f aca="false">G9</f>
         <v>4</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="10" t="n">
         <f aca="false">(E8+4*F8+G8)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="10" t="n">
         <f aca="false">(G8-E8)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="K8" s="10" t="n">
         <f aca="false">J8*J8</f>
         <v>0.25</v>
       </c>
@@ -825,21 +814,21 @@
       <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14" t="n">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="n">
         <v>4</v>
       </c>
       <c r="H9" s="0"/>
@@ -855,32 +844,32 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="n">
         <f aca="false">E11</f>
         <v>0</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="10" t="n">
         <f aca="false">F11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="10" t="n">
         <f aca="false">G11</f>
         <v>3</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="10" t="n">
         <f aca="false">(E10+4*F10+G10)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J10" s="12" t="n">
+      <c r="J10" s="10" t="n">
         <f aca="false">(G10-E10)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K10" s="12" t="n">
+      <c r="K10" s="10" t="n">
         <f aca="false">J10*J10</f>
         <v>0.25</v>
       </c>
@@ -890,21 +879,21 @@
       <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14" t="n">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="0"/>
@@ -919,29 +908,27 @@
       <c r="P11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="E12" s="11" t="n">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="9" t="n">
         <f aca="false">E13+E15</f>
         <v>3</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="9" t="n">
         <f aca="false">F13+F15</f>
         <v>4</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="9" t="n">
         <f aca="false">G13+G15</f>
         <v>7</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
@@ -949,32 +936,32 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="n">
         <f aca="false">E14</f>
         <v>1</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="10" t="n">
         <f aca="false">F14</f>
         <v>1</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="10" t="n">
         <f aca="false">G14</f>
         <v>2</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="10" t="n">
         <f aca="false">(E13+4*F13+G13)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="10" t="n">
         <f aca="false">(G13-E13)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="10" t="n">
         <f aca="false">J13*J13</f>
         <v>0.0277777777777778</v>
       </c>
@@ -984,21 +971,21 @@
       <c r="P13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14" t="n">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="0"/>
@@ -1014,32 +1001,32 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="n">
         <f aca="false">E16</f>
         <v>2</v>
       </c>
-      <c r="F15" s="12" t="n">
+      <c r="F15" s="10" t="n">
         <f aca="false">F16</f>
         <v>3</v>
       </c>
-      <c r="G15" s="12" t="n">
+      <c r="G15" s="10" t="n">
         <f aca="false">G16</f>
         <v>5</v>
       </c>
-      <c r="I15" s="12" t="n">
+      <c r="I15" s="10" t="n">
         <f aca="false">(E15+4*F15+G15)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J15" s="12" t="n">
+      <c r="J15" s="10" t="n">
         <f aca="false">(G15-E15)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K15" s="12" t="n">
+      <c r="K15" s="10" t="n">
         <f aca="false">J15*J15</f>
         <v>0.25</v>
       </c>
@@ -1049,21 +1036,21 @@
       <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14" t="n">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="14" t="n">
+      <c r="G16" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H16" s="0"/>
@@ -1079,32 +1066,32 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="n">
         <f aca="false">E18</f>
         <v>1</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="10" t="n">
         <f aca="false">F18</f>
         <v>2</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="10" t="n">
         <f aca="false">G18</f>
         <v>5</v>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="I17" s="10" t="n">
         <f aca="false">(E17+4*F17+G17)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="10" t="n">
         <f aca="false">(G17-E17)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K17" s="12" t="n">
+      <c r="K17" s="10" t="n">
         <f aca="false">J17*J17</f>
         <v>0.444444444444444</v>
       </c>
@@ -1114,21 +1101,21 @@
       <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="14" t="n">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H18" s="0"/>
@@ -1144,32 +1131,32 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="n">
         <f aca="false">E20</f>
         <v>1</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="10" t="n">
         <f aca="false">F20</f>
         <v>1</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="10" t="n">
         <f aca="false">G20</f>
         <v>2</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="10" t="n">
         <f aca="false">(E19+4*F19+G19)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J19" s="12" t="n">
+      <c r="J19" s="10" t="n">
         <f aca="false">(G19-E19)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K19" s="12" t="n">
+      <c r="K19" s="10" t="n">
         <f aca="false">J19*J19</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1179,21 +1166,21 @@
       <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14" t="n">
+      <c r="A20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H20" s="0"/>
@@ -1209,24 +1196,22 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="8" t="n">
+      <c r="D21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="n">
         <f aca="false">E22+E29+E32</f>
         <v>7</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <f aca="false">F22+F29+F32</f>
         <v>16</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="7" t="n">
         <f aca="false">G22+G29+G32</f>
         <v>27</v>
       </c>
@@ -1240,32 +1225,30 @@
       <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9"/>
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" s="9" t="n">
         <f aca="false">E23+E25+E27</f>
         <v>6</v>
       </c>
-      <c r="F22" s="11" t="n">
+      <c r="F22" s="9" t="n">
         <f aca="false">F23+F25+F27</f>
         <v>9</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="9" t="n">
         <f aca="false">G23+G25+G27</f>
         <v>15</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
@@ -1273,32 +1256,32 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="n">
         <f aca="false">E24</f>
         <v>3</v>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="10" t="n">
         <f aca="false">F24</f>
         <v>5</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" s="10" t="n">
         <f aca="false">G24</f>
         <v>10</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="10" t="n">
         <f aca="false">(E23+4*F23+G23)/6</f>
         <v>5.5</v>
       </c>
-      <c r="J23" s="12" t="n">
+      <c r="J23" s="10" t="n">
         <f aca="false">(G23-E23)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K23" s="12" t="n">
+      <c r="K23" s="10" t="n">
         <f aca="false">J23*J23</f>
         <v>1.36111111111111</v>
       </c>
@@ -1308,21 +1291,21 @@
       <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14" t="n">
+      <c r="A24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="12" t="n">
         <v>10</v>
       </c>
       <c r="H24" s="0"/>
@@ -1338,32 +1321,32 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="n">
         <f aca="false">E26</f>
         <v>2</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="10" t="n">
         <f aca="false">F26</f>
         <v>2</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="10" t="n">
         <f aca="false">G26</f>
         <v>3</v>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" s="10" t="n">
         <f aca="false">(E25+4*F25+G25)/6</f>
         <v>2.16666666666667</v>
       </c>
-      <c r="J25" s="12" t="n">
+      <c r="J25" s="10" t="n">
         <f aca="false">(G25-E25)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K25" s="12" t="n">
+      <c r="K25" s="10" t="n">
         <f aca="false">J25*J25</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1373,21 +1356,21 @@
       <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="14" t="n">
+      <c r="A26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H26" s="0"/>
@@ -1403,32 +1386,32 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12" t="n">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="n">
         <f aca="false">E28</f>
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="F27" s="10" t="n">
         <f aca="false">F28</f>
         <v>2</v>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="G27" s="10" t="n">
         <f aca="false">G28</f>
         <v>2</v>
       </c>
-      <c r="I27" s="12" t="n">
+      <c r="I27" s="10" t="n">
         <f aca="false">(E27+4*F27+G27)/6</f>
         <v>1.83333333333333</v>
       </c>
-      <c r="J27" s="12" t="n">
+      <c r="J27" s="10" t="n">
         <f aca="false">(G27-E27)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K27" s="12" t="n">
+      <c r="K27" s="10" t="n">
         <f aca="false">J27*J27</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1438,21 +1421,21 @@
       <c r="P27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="14" t="n">
+      <c r="A28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H28" s="0"/>
@@ -1468,32 +1451,32 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="n">
         <f aca="false">E30+E31</f>
         <v>1</v>
       </c>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="10" t="n">
         <f aca="false">F30+F31</f>
         <v>3</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="10" t="n">
         <f aca="false">G30+G31</f>
         <v>5</v>
       </c>
-      <c r="I29" s="12" t="n">
+      <c r="I29" s="10" t="n">
         <f aca="false">(E29+4*F29+G29)/6</f>
         <v>3</v>
       </c>
-      <c r="J29" s="12" t="n">
+      <c r="J29" s="10" t="n">
         <f aca="false">(G29-E29)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K29" s="12" t="n">
+      <c r="K29" s="10" t="n">
         <f aca="false">J29*J29</f>
         <v>0.444444444444444</v>
       </c>
@@ -1503,21 +1486,21 @@
       <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="14" t="n">
+      <c r="A30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H30" s="0"/>
@@ -1532,21 +1515,21 @@
       <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="14" t="n">
+      <c r="A31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12" t="n">
         <v>3</v>
       </c>
       <c r="H31" s="0"/>
@@ -1562,32 +1545,32 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="n">
         <f aca="false">E33+E34</f>
         <v>0</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="10" t="n">
         <f aca="false">F33+F34</f>
         <v>4</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="10" t="n">
         <f aca="false">G33+G34</f>
         <v>7</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="10" t="n">
         <f aca="false">(E32+4*F32+G32)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J32" s="12" t="n">
+      <c r="J32" s="10" t="n">
         <f aca="false">(G32-E32)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="K32" s="12" t="n">
+      <c r="K32" s="10" t="n">
         <f aca="false">J32*J32</f>
         <v>1.36111111111111</v>
       </c>
@@ -1597,21 +1580,21 @@
       <c r="P32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14" t="n">
+      <c r="A33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H33" s="0"/>
@@ -1626,21 +1609,21 @@
       <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14" t="n">
+      <c r="A34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="14" t="n">
+      <c r="G34" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H34" s="0"/>
@@ -1656,24 +1639,22 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="8" t="n">
+      <c r="D35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="7" t="n">
         <f aca="false">E36+E41+E43+E45+E47</f>
         <v>8</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="7" t="n">
         <f aca="false">F36+F41+F43+F45+F47</f>
         <v>12</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="7" t="n">
         <f aca="false">G36+G41+G43+G45+G47</f>
         <v>21</v>
       </c>
@@ -1687,29 +1668,27 @@
       <c r="P35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="E36" s="11" t="n">
+      <c r="A36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="E36" s="9" t="n">
         <f aca="false">E37+E39</f>
         <v>3</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="9" t="n">
         <f aca="false">F37+F39</f>
         <v>5</v>
       </c>
-      <c r="G36" s="11" t="n">
+      <c r="G36" s="9" t="n">
         <f aca="false">G37+G39</f>
         <v>10</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
@@ -1717,32 +1696,32 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12" t="n">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="n">
         <f aca="false">E38</f>
         <v>1</v>
       </c>
-      <c r="F37" s="12" t="n">
+      <c r="F37" s="10" t="n">
         <f aca="false">F38</f>
         <v>2</v>
       </c>
-      <c r="G37" s="12" t="n">
+      <c r="G37" s="10" t="n">
         <f aca="false">G38</f>
         <v>5</v>
       </c>
-      <c r="I37" s="12" t="n">
+      <c r="I37" s="10" t="n">
         <f aca="false">(E37+4*F37+G37)/6</f>
         <v>2.33333333333333</v>
       </c>
-      <c r="J37" s="12" t="n">
+      <c r="J37" s="10" t="n">
         <f aca="false">(G37-E37)/6</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="K37" s="12" t="n">
+      <c r="K37" s="10" t="n">
         <f aca="false">J37*J37</f>
         <v>0.444444444444444</v>
       </c>
@@ -1752,21 +1731,21 @@
       <c r="P37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="14" t="n">
+      <c r="A38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H38" s="0"/>
@@ -1782,32 +1761,32 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12" t="n">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="n">
         <f aca="false">E40</f>
         <v>2</v>
       </c>
-      <c r="F39" s="12" t="n">
+      <c r="F39" s="10" t="n">
         <f aca="false">F40</f>
         <v>3</v>
       </c>
-      <c r="G39" s="12" t="n">
+      <c r="G39" s="10" t="n">
         <f aca="false">G40</f>
         <v>5</v>
       </c>
-      <c r="I39" s="12" t="n">
+      <c r="I39" s="10" t="n">
         <f aca="false">(E39+4*F39+G39)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J39" s="12" t="n">
+      <c r="J39" s="10" t="n">
         <f aca="false">(G39-E39)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K39" s="12" t="n">
+      <c r="K39" s="10" t="n">
         <f aca="false">J39*J39</f>
         <v>0.25</v>
       </c>
@@ -1817,21 +1796,21 @@
       <c r="P39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" s="14" t="n">
+      <c r="A40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G40" s="14" t="n">
+      <c r="G40" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H40" s="0"/>
@@ -1847,32 +1826,32 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="n">
         <f aca="false">E42</f>
         <v>1</v>
       </c>
-      <c r="F41" s="12" t="n">
+      <c r="F41" s="10" t="n">
         <f aca="false">F42</f>
         <v>1</v>
       </c>
-      <c r="G41" s="12" t="n">
+      <c r="G41" s="10" t="n">
         <f aca="false">G42</f>
         <v>2</v>
       </c>
-      <c r="I41" s="12" t="n">
+      <c r="I41" s="10" t="n">
         <f aca="false">(E41+4*F41+G41)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J41" s="12" t="n">
+      <c r="J41" s="10" t="n">
         <f aca="false">(G41-E41)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K41" s="12" t="n">
+      <c r="K41" s="10" t="n">
         <f aca="false">J41*J41</f>
         <v>0.0277777777777778</v>
       </c>
@@ -1882,21 +1861,21 @@
       <c r="P41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="14" t="n">
+      <c r="A42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H42" s="0"/>
@@ -1912,32 +1891,32 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="n">
         <f aca="false">E44</f>
         <v>2</v>
       </c>
-      <c r="F43" s="12" t="n">
+      <c r="F43" s="10" t="n">
         <f aca="false">F44</f>
         <v>4</v>
       </c>
-      <c r="G43" s="12" t="n">
+      <c r="G43" s="10" t="n">
         <f aca="false">G44</f>
         <v>5</v>
       </c>
-      <c r="I43" s="12" t="n">
+      <c r="I43" s="10" t="n">
         <f aca="false">(E43+4*F43+G43)/6</f>
         <v>3.83333333333333</v>
       </c>
-      <c r="J43" s="12" t="n">
+      <c r="J43" s="10" t="n">
         <f aca="false">(G43-E43)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K43" s="12" t="n">
+      <c r="K43" s="10" t="n">
         <f aca="false">J43*J43</f>
         <v>0.25</v>
       </c>
@@ -1946,21 +1925,21 @@
       <c r="P43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F44" s="14" t="n">
+      <c r="A44" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G44" s="14" t="n">
+      <c r="G44" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H44" s="0"/>
@@ -1975,32 +1954,32 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12" t="n">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="n">
         <f aca="false">E46</f>
         <v>1</v>
       </c>
-      <c r="F45" s="12" t="n">
+      <c r="F45" s="10" t="n">
         <f aca="false">F46</f>
         <v>1</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="10" t="n">
         <f aca="false">G46</f>
         <v>2</v>
       </c>
-      <c r="I45" s="12" t="n">
+      <c r="I45" s="10" t="n">
         <f aca="false">(E45+4*F45+G45)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J45" s="12" t="n">
+      <c r="J45" s="10" t="n">
         <f aca="false">(G45-E45)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K45" s="12" t="n">
+      <c r="K45" s="10" t="n">
         <f aca="false">J45*J45</f>
         <v>0.0277777777777778</v>
       </c>
@@ -2009,21 +1988,21 @@
       <c r="P45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="14" t="n">
+      <c r="A46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H46" s="0"/>
@@ -2038,35 +2017,35 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="12" t="n">
+        <v>48</v>
+      </c>
+      <c r="E47" s="10" t="n">
         <f aca="false">E48</f>
         <v>1</v>
       </c>
-      <c r="F47" s="12" t="n">
+      <c r="F47" s="10" t="n">
         <f aca="false">F48</f>
         <v>1</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="10" t="n">
         <f aca="false">G48</f>
         <v>2</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="10" t="n">
         <f aca="false">(E47+4*F47+G47)/6</f>
         <v>1.16666666666667</v>
       </c>
-      <c r="J47" s="12" t="n">
+      <c r="J47" s="10" t="n">
         <f aca="false">(G47-E47)/6</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="K47" s="12" t="n">
+      <c r="K47" s="10" t="n">
         <f aca="false">J47*J47</f>
         <v>0.0277777777777778</v>
       </c>
@@ -2075,21 +2054,21 @@
       <c r="P47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="14" t="n">
+      <c r="A48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="12" t="n">
         <v>2</v>
       </c>
       <c r="H48" s="0"/>
@@ -2104,24 +2083,22 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="8" t="n">
+      <c r="D49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="7" t="n">
         <f aca="false">E50+E52+E54</f>
         <v>4</v>
       </c>
-      <c r="F49" s="8" t="n">
+      <c r="F49" s="7" t="n">
         <f aca="false">F50+F52+F54</f>
         <v>13</v>
       </c>
-      <c r="G49" s="8" t="n">
+      <c r="G49" s="7" t="n">
         <f aca="false">G50+G52+G54</f>
         <v>28</v>
       </c>
@@ -2135,32 +2112,32 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12" t="n">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10" t="n">
         <f aca="false">E51</f>
         <v>2</v>
       </c>
-      <c r="F50" s="12" t="n">
+      <c r="F50" s="10" t="n">
         <f aca="false">F51</f>
         <v>3</v>
       </c>
-      <c r="G50" s="12" t="n">
+      <c r="G50" s="10" t="n">
         <f aca="false">G51</f>
         <v>5</v>
       </c>
-      <c r="I50" s="12" t="n">
+      <c r="I50" s="10" t="n">
         <f aca="false">(E50+4*F50+G50)/6</f>
         <v>3.16666666666667</v>
       </c>
-      <c r="J50" s="12" t="n">
+      <c r="J50" s="10" t="n">
         <f aca="false">(G50-E50)/6</f>
         <v>0.5</v>
       </c>
-      <c r="K50" s="12" t="n">
+      <c r="K50" s="10" t="n">
         <f aca="false">J50*J50</f>
         <v>0.25</v>
       </c>
@@ -2169,21 +2146,21 @@
       <c r="P50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" s="14" t="n">
+      <c r="A51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="14" t="n">
+      <c r="G51" s="12" t="n">
         <v>5</v>
       </c>
       <c r="H51" s="0"/>
@@ -2198,32 +2175,32 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10" t="n">
         <f aca="false">E53</f>
         <v>2</v>
       </c>
-      <c r="F52" s="12" t="n">
+      <c r="F52" s="10" t="n">
         <f aca="false">F53</f>
         <v>5</v>
       </c>
-      <c r="G52" s="12" t="n">
+      <c r="G52" s="10" t="n">
         <f aca="false">G53</f>
         <v>8</v>
       </c>
-      <c r="I52" s="12" t="n">
+      <c r="I52" s="10" t="n">
         <f aca="false">(E52+4*F52+G52)/6</f>
         <v>5</v>
       </c>
-      <c r="J52" s="12" t="n">
+      <c r="J52" s="10" t="n">
         <f aca="false">(G52-E52)/6</f>
         <v>1</v>
       </c>
-      <c r="K52" s="12" t="n">
+      <c r="K52" s="10" t="n">
         <f aca="false">J52*J52</f>
         <v>1</v>
       </c>
@@ -2232,21 +2209,21 @@
       <c r="P52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" s="14" t="n">
+      <c r="A53" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="14" t="n">
+      <c r="G53" s="12" t="n">
         <v>8</v>
       </c>
       <c r="H53" s="0"/>
@@ -2261,32 +2238,32 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12" t="n">
+        <v>37</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="n">
         <f aca="false">E55</f>
         <v>0</v>
       </c>
-      <c r="F54" s="12" t="n">
+      <c r="F54" s="10" t="n">
         <f aca="false">F55</f>
         <v>5</v>
       </c>
-      <c r="G54" s="12" t="n">
+      <c r="G54" s="10" t="n">
         <f aca="false">G55</f>
         <v>15</v>
       </c>
-      <c r="I54" s="12" t="n">
+      <c r="I54" s="10" t="n">
         <f aca="false">(E54+4*F54+G54)/6</f>
         <v>5.83333333333333</v>
       </c>
-      <c r="J54" s="12" t="n">
+      <c r="J54" s="10" t="n">
         <f aca="false">(G54-E54)/6</f>
         <v>2.5</v>
       </c>
-      <c r="K54" s="12" t="n">
+      <c r="K54" s="10" t="n">
         <f aca="false">J54*J54</f>
         <v>6.25</v>
       </c>
@@ -2294,21 +2271,21 @@
       <c r="P54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14" t="n">
+      <c r="A55" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="14" t="n">
+      <c r="G55" s="12" t="n">
         <v>15</v>
       </c>
       <c r="H55" s="0"/>
@@ -2322,24 +2299,22 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="8" t="n">
+      <c r="D56" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="7" t="n">
         <f aca="false">E57</f>
         <v>0</v>
       </c>
-      <c r="F56" s="8" t="n">
+      <c r="F56" s="7" t="n">
         <f aca="false">F57</f>
         <v>0</v>
       </c>
-      <c r="G56" s="8" t="n">
+      <c r="G56" s="7" t="n">
         <f aca="false">G57</f>
         <v>0</v>
       </c>
@@ -2350,48 +2325,44 @@
       <c r="P56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="E57" s="11" t="n">
+      <c r="A57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="E57" s="9" t="n">
         <f aca="false">E58+E73</f>
         <v>0</v>
       </c>
-      <c r="F57" s="11" t="n">
+      <c r="F57" s="9" t="n">
         <f aca="false">F58+F73</f>
         <v>0</v>
       </c>
-      <c r="G57" s="11" t="n">
+      <c r="G57" s="9" t="n">
         <f aca="false">G58+G73</f>
         <v>0</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
       <c r="P57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="E58" s="11" t="n">
+      <c r="E58" s="9" t="n">
         <f aca="false">E59+E68</f>
         <v>0</v>
       </c>
-      <c r="F58" s="11" t="n">
+      <c r="F58" s="9" t="n">
         <f aca="false">F59+F68</f>
         <v>0</v>
       </c>
-      <c r="G58" s="11" t="n">
+      <c r="G58" s="9" t="n">
         <f aca="false">G59+G68</f>
         <v>0</v>
       </c>
@@ -2403,21 +2374,19 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="E59" s="11" t="n">
+      <c r="E59" s="9" t="n">
         <f aca="false">E60</f>
         <v>0</v>
       </c>
-      <c r="F59" s="11" t="n">
+      <c r="F59" s="9" t="n">
         <f aca="false">F60</f>
         <v>0</v>
       </c>
-      <c r="G59" s="11" t="n">
+      <c r="G59" s="9" t="n">
         <f aca="false">G60</f>
         <v>0</v>
       </c>
@@ -2429,21 +2398,19 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="E60" s="11" t="n">
+      <c r="E60" s="9" t="n">
         <f aca="false">E61</f>
         <v>0</v>
       </c>
-      <c r="F60" s="11" t="n">
+      <c r="F60" s="9" t="n">
         <f aca="false">F61</f>
         <v>0</v>
       </c>
-      <c r="G60" s="11" t="n">
+      <c r="G60" s="9" t="n">
         <f aca="false">G61</f>
         <v>0</v>
       </c>
@@ -2455,20 +2422,17 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="14" t="n">
+        <v>59</v>
+      </c>
+      <c r="E61" s="12" t="n">
         <f aca="false">E62+E66</f>
         <v>0</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="12" t="n">
         <f aca="false">F62+F66</f>
         <v>0</v>
       </c>
-      <c r="G61" s="14" t="n">
+      <c r="G61" s="12" t="n">
         <f aca="false">G62+G66</f>
         <v>0</v>
       </c>
@@ -2479,20 +2443,17 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="14" t="n">
+        <v>60</v>
+      </c>
+      <c r="E62" s="12" t="n">
         <f aca="false">E63</f>
         <v>0</v>
       </c>
-      <c r="F62" s="14" t="n">
+      <c r="F62" s="12" t="n">
         <f aca="false">F63</f>
         <v>0</v>
       </c>
-      <c r="G62" s="14" t="n">
+      <c r="G62" s="12" t="n">
         <f aca="false">G63</f>
         <v>0</v>
       </c>
@@ -2503,20 +2464,17 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="E63" s="12" t="n">
         <f aca="false">E64</f>
         <v>0</v>
       </c>
-      <c r="F63" s="14" t="n">
+      <c r="F63" s="12" t="n">
         <f aca="false">F64</f>
         <v>0</v>
       </c>
-      <c r="G63" s="14" t="n">
+      <c r="G63" s="12" t="n">
         <f aca="false">G64</f>
         <v>0</v>
       </c>
@@ -2527,53 +2485,53 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="12" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="10" t="n">
         <f aca="false">E65</f>
         <v>0</v>
       </c>
-      <c r="F64" s="12" t="n">
+      <c r="F64" s="10" t="n">
         <f aca="false">F65</f>
         <v>0</v>
       </c>
-      <c r="G64" s="12" t="n">
+      <c r="G64" s="10" t="n">
         <f aca="false">G65</f>
         <v>0</v>
       </c>
-      <c r="I64" s="12" t="n">
+      <c r="I64" s="10" t="n">
         <f aca="false">(E64+4*F64+G64)/6</f>
         <v>0</v>
       </c>
-      <c r="J64" s="12" t="n">
+      <c r="J64" s="10" t="n">
         <f aca="false">(G64-E64)/6</f>
         <v>0</v>
       </c>
-      <c r="K64" s="12" t="n">
+      <c r="K64" s="10" t="n">
         <f aca="false">J64*J64</f>
         <v>0</v>
       </c>
       <c r="P64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14" t="n">
+      <c r="A65" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="0"/>
@@ -2586,53 +2544,53 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10" t="n">
         <f aca="false">E67</f>
         <v>0</v>
       </c>
-      <c r="F66" s="12" t="n">
+      <c r="F66" s="10" t="n">
         <f aca="false">F67</f>
         <v>0</v>
       </c>
-      <c r="G66" s="12" t="n">
+      <c r="G66" s="10" t="n">
         <f aca="false">G67</f>
         <v>0</v>
       </c>
-      <c r="I66" s="12" t="n">
+      <c r="I66" s="10" t="n">
         <f aca="false">(E66+4*F66+G66)/6</f>
         <v>0</v>
       </c>
-      <c r="J66" s="12" t="n">
+      <c r="J66" s="10" t="n">
         <f aca="false">(G66-E66)/6</f>
         <v>0</v>
       </c>
-      <c r="K66" s="12" t="n">
+      <c r="K66" s="10" t="n">
         <f aca="false">J66*J66</f>
         <v>0</v>
       </c>
       <c r="P66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="14" t="n">
+      <c r="A67" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="0"/>
@@ -2645,21 +2603,19 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="E68" s="11" t="n">
+      <c r="E68" s="9" t="n">
         <f aca="false">E69</f>
         <v>0</v>
       </c>
-      <c r="F68" s="11" t="n">
+      <c r="F68" s="9" t="n">
         <f aca="false">F69</f>
         <v>0</v>
       </c>
-      <c r="G68" s="11" t="n">
+      <c r="G68" s="9" t="n">
         <f aca="false">G69</f>
         <v>0</v>
       </c>
@@ -2671,21 +2627,19 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="E69" s="11" t="n">
+      <c r="E69" s="9" t="n">
         <f aca="false">E70</f>
         <v>0</v>
       </c>
-      <c r="F69" s="11" t="n">
+      <c r="F69" s="9" t="n">
         <f aca="false">F70</f>
         <v>0</v>
       </c>
-      <c r="G69" s="11" t="n">
+      <c r="G69" s="9" t="n">
         <f aca="false">G70</f>
         <v>0</v>
       </c>
@@ -2697,20 +2651,17 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B70" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="14" t="n">
+        <v>59</v>
+      </c>
+      <c r="E70" s="12" t="n">
         <f aca="false">E71</f>
         <v>0</v>
       </c>
-      <c r="F70" s="14" t="n">
+      <c r="F70" s="12" t="n">
         <f aca="false">F71</f>
         <v>0</v>
       </c>
-      <c r="G70" s="14" t="n">
+      <c r="G70" s="12" t="n">
         <f aca="false">G71</f>
         <v>0</v>
       </c>
@@ -2721,53 +2672,53 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B71" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10" t="n">
         <f aca="false">E72</f>
         <v>0</v>
       </c>
-      <c r="F71" s="12" t="n">
+      <c r="F71" s="10" t="n">
         <f aca="false">F72</f>
         <v>0</v>
       </c>
-      <c r="G71" s="12" t="n">
+      <c r="G71" s="10" t="n">
         <f aca="false">G72</f>
         <v>0</v>
       </c>
-      <c r="I71" s="12" t="n">
+      <c r="I71" s="10" t="n">
         <f aca="false">(E71+4*F71+G71)/6</f>
         <v>0</v>
       </c>
-      <c r="J71" s="12" t="n">
+      <c r="J71" s="10" t="n">
         <f aca="false">(G71-E71)/6</f>
         <v>0</v>
       </c>
-      <c r="K71" s="12" t="n">
+      <c r="K71" s="10" t="n">
         <f aca="false">J71*J71</f>
         <v>0</v>
       </c>
       <c r="P71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="14" t="n">
+      <c r="A72" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H72" s="0"/>
@@ -2780,21 +2731,19 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="E73" s="11" t="n">
+      <c r="E73" s="9" t="n">
         <f aca="false">E74</f>
         <v>0</v>
       </c>
-      <c r="F73" s="11" t="n">
+      <c r="F73" s="9" t="n">
         <f aca="false">F74</f>
         <v>0</v>
       </c>
-      <c r="G73" s="11" t="n">
+      <c r="G73" s="9" t="n">
         <f aca="false">G74</f>
         <v>0</v>
       </c>
@@ -2806,21 +2755,19 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="15" t="n">
-        <v>0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="E74" s="11" t="n">
+      <c r="E74" s="9" t="n">
         <f aca="false">E75</f>
         <v>0</v>
       </c>
-      <c r="F74" s="11" t="n">
+      <c r="F74" s="9" t="n">
         <f aca="false">F75</f>
         <v>0</v>
       </c>
-      <c r="G74" s="11" t="n">
+      <c r="G74" s="9" t="n">
         <f aca="false">G75</f>
         <v>0</v>
       </c>
@@ -2832,53 +2779,53 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="12" t="n">
+        <v>58</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10" t="n">
         <f aca="false">E76</f>
         <v>0</v>
       </c>
-      <c r="F75" s="12" t="n">
+      <c r="F75" s="10" t="n">
         <f aca="false">F76</f>
         <v>0</v>
       </c>
-      <c r="G75" s="12" t="n">
+      <c r="G75" s="10" t="n">
         <f aca="false">G76</f>
         <v>0</v>
       </c>
-      <c r="I75" s="12" t="n">
+      <c r="I75" s="10" t="n">
         <f aca="false">(E75+4*F75+G75)/6</f>
         <v>0</v>
       </c>
-      <c r="J75" s="12" t="n">
+      <c r="J75" s="10" t="n">
         <f aca="false">(G75-E75)/6</f>
         <v>0</v>
       </c>
-      <c r="K75" s="12" t="n">
+      <c r="K75" s="10" t="n">
         <f aca="false">J75*J75</f>
         <v>0</v>
       </c>
       <c r="P75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="14" t="n">
+      <c r="A76" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12" t="n">
         <v>0</v>
       </c>
       <c r="H76" s="0"/>
@@ -2903,115 +2850,115 @@
       <c r="K77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="17" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,B2:B76)</f>
+      <c r="A78" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,B2:B77)</f>
         <v>27</v>
       </c>
-      <c r="F78" s="17" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,B2:B76)</f>
+      <c r="F78" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,B2:B77)</f>
         <v>54</v>
       </c>
-      <c r="G78" s="17" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,B2:B76)</f>
+      <c r="G78" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,B2:B77)</f>
         <v>103</v>
       </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="17" t="n">
-        <f aca="false">SUMPRODUCT(I2:I76,B2:B76)</f>
+      <c r="H78" s="13"/>
+      <c r="I78" s="14" t="n">
+        <f aca="false">SUMPRODUCT(I2:I77,B2:B77)</f>
         <v>57.6666666666667</v>
       </c>
-      <c r="J78" s="17" t="n">
-        <f aca="false">SUMPRODUCT(J2:J76,B2:B76)</f>
+      <c r="J78" s="14" t="n">
+        <f aca="false">SUMPRODUCT(J2:J77,B2:B77)</f>
         <v>12.6666666666667</v>
       </c>
-      <c r="K78" s="17" t="n">
-        <f aca="false">SUMPRODUCT(K2:K76,B2:B76)</f>
+      <c r="K78" s="14" t="n">
+        <f aca="false">SUMPRODUCT(K2:K77,B2:B77)</f>
         <v>13.2777777777778</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,M2:M76)</f>
-        <v>1</v>
-      </c>
-      <c r="F79" s="17" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,M2:M76)</f>
-        <v>1</v>
-      </c>
-      <c r="G79" s="17" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,M2:M76)</f>
+      <c r="A79" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,M2:M77)</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,M2:M77)</f>
+        <v>1</v>
+      </c>
+      <c r="G79" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,M2:M77)</f>
         <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="17" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,N2:N76)</f>
+      <c r="A80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,N2:N77)</f>
         <v>20</v>
       </c>
-      <c r="F80" s="17" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,N2:N76)</f>
+      <c r="F80" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,N2:N77)</f>
         <v>35</v>
       </c>
-      <c r="G80" s="17" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,N2:N76)</f>
+      <c r="G80" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,N2:N77)</f>
         <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="17" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,O2:O76)</f>
+      <c r="A81" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,O2:O77)</f>
         <v>6</v>
       </c>
-      <c r="F81" s="17" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,O2:O76)</f>
+      <c r="F81" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,O2:O77)</f>
         <v>18</v>
       </c>
-      <c r="G81" s="17" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,O2:O76)</f>
+      <c r="G81" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,O2:O77)</f>
         <v>40</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="17" t="n">
-        <f aca="false">SUMPRODUCT(E2:E76,P2:P76)</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="17" t="n">
-        <f aca="false">SUMPRODUCT(F2:F76,P2:P76)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="17" t="n">
-        <f aca="false">SUMPRODUCT(G2:G76,P2:P76)</f>
+      <c r="A82" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E77,P2:P77)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F77,P2:P77)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G77,P2:P77)</f>
         <v>0</v>
       </c>
     </row>
@@ -3022,56 +2969,56 @@
       <c r="D83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="s">
-        <v>70</v>
+      <c r="A84" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B84" s="0"/>
-      <c r="C84" s="12" t="n">
+      <c r="C84" s="10" t="n">
         <f aca="false">SQRT(K78)</f>
         <v>3.64386851817924</v>
       </c>
       <c r="D84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18" t="s">
-        <v>71</v>
+      <c r="A85" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B85" s="0"/>
-      <c r="C85" s="12" t="n">
+      <c r="C85" s="10" t="n">
         <v>1.5</v>
       </c>
       <c r="D85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="17" t="n">
+      <c r="A86" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14" t="n">
         <f aca="false">I78-2*C84</f>
         <v>50.3789296303082</v>
       </c>
-      <c r="D86" s="19" t="n">
+      <c r="D86" s="16" t="n">
         <f aca="false">C86*C85</f>
         <v>75.5683944454623</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17" t="n">
+      <c r="A87" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14" t="n">
         <f aca="false">I78+2*C84</f>
         <v>64.9544037030251</v>
       </c>
-      <c r="D87" s="19" t="n">
+      <c r="D87" s="16" t="n">
         <f aca="false">C87*C85</f>
         <v>97.4316055545377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K76"/>
+  <autoFilter ref="A1:K77"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$77</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
   </si>
@@ -62,9 +62,6 @@
     <t xml:space="preserve">(coding)</t>
   </si>
   <si>
-    <t xml:space="preserve">(test)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stage 1: Implement the Idea</t>
   </si>
   <si>
@@ -185,45 +182,6 @@
     <t xml:space="preserve">  Analyze feedbacks</t>
   </si>
   <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">this is a temporary branch for theme testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  (test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">              (test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          (test)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total</t>
   </si>
   <si>
@@ -234,9 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - test</t>
   </si>
   <si>
     <t xml:space="preserve">Standard deviation</t>
@@ -527,7 +482,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -543,8 +498,8 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="11" min="9" style="3" width="7.56122448979592"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="true" max="16" min="13" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="15" min="13" style="1" width="0"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,18 +541,15 @@
       <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="n">
         <f aca="false">E3+E12+E17+E19</f>
@@ -618,11 +570,10 @@
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -645,11 +596,10 @@
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
@@ -681,11 +631,10 @@
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>0</v>
@@ -710,11 +659,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
@@ -746,11 +694,10 @@
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11" t="n">
         <v>0</v>
@@ -775,11 +722,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
@@ -811,11 +757,10 @@
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="11" t="n">
         <v>0</v>
@@ -840,11 +785,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
@@ -876,11 +820,10 @@
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="11" t="n">
         <v>0</v>
@@ -905,11 +848,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -932,11 +874,10 @@
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
@@ -968,11 +909,10 @@
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>0</v>
@@ -997,11 +937,10 @@
       <c r="O14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
@@ -1033,11 +972,10 @@
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="11" t="n">
         <v>0</v>
@@ -1062,11 +1000,10 @@
       <c r="O16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
@@ -1098,11 +1035,10 @@
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11" t="n">
         <v>0</v>
@@ -1127,11 +1063,10 @@
         <v>1</v>
       </c>
       <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
@@ -1163,11 +1098,10 @@
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="11" t="n">
         <v>0</v>
@@ -1192,16 +1126,15 @@
         <v>1</v>
       </c>
       <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="7" t="n">
         <f aca="false">E22+E29+E32</f>
@@ -1222,16 +1155,15 @@
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9" t="n">
         <f aca="false">E23+E25+E27</f>
@@ -1252,11 +1184,10 @@
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1</v>
@@ -1288,11 +1219,10 @@
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="11" t="n">
         <v>0</v>
@@ -1317,11 +1247,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>1</v>
@@ -1353,11 +1282,10 @@
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="11" t="n">
         <v>0</v>
@@ -1382,11 +1310,10 @@
         <v>1</v>
       </c>
       <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1</v>
@@ -1418,11 +1345,10 @@
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="11" t="n">
         <v>0</v>
@@ -1447,11 +1373,10 @@
         <v>1</v>
       </c>
       <c r="O28" s="0"/>
-      <c r="P28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1</v>
@@ -1483,11 +1408,10 @@
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="11" t="n">
         <v>0</v>
@@ -1512,11 +1436,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="11" t="n">
         <v>0</v>
@@ -1541,11 +1464,10 @@
       <c r="O31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -1577,11 +1499,10 @@
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="11" t="n">
         <v>0</v>
@@ -1606,11 +1527,10 @@
         <v>1</v>
       </c>
       <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="11" t="n">
         <v>0</v>
@@ -1635,16 +1555,15 @@
       <c r="O34" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="7" t="n">
         <f aca="false">E36+E41+E43+E45+E47</f>
@@ -1665,11 +1584,10 @@
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
-      <c r="P35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1692,11 +1610,10 @@
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1</v>
@@ -1728,11 +1645,10 @@
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
-      <c r="P37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="11" t="n">
         <v>0</v>
@@ -1757,11 +1673,10 @@
       <c r="O38" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>1</v>
@@ -1793,11 +1708,10 @@
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
-      <c r="P39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="11" t="n">
         <v>0</v>
@@ -1822,11 +1736,10 @@
       <c r="O40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -1858,11 +1771,10 @@
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
       <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="11" t="n">
         <v>0</v>
@@ -1887,11 +1799,10 @@
       </c>
       <c r="N42" s="0"/>
       <c r="O42" s="0"/>
-      <c r="P42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>1</v>
@@ -1922,11 +1833,10 @@
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="0"/>
-      <c r="P43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="11" t="n">
         <v>0</v>
@@ -1950,11 +1860,10 @@
         <v>1</v>
       </c>
       <c r="O44" s="0"/>
-      <c r="P44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1</v>
@@ -1985,11 +1894,10 @@
       </c>
       <c r="N45" s="0"/>
       <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="11" t="n">
         <v>0</v>
@@ -2013,17 +1921,16 @@
         <v>1</v>
       </c>
       <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E47" s="10" t="n">
         <f aca="false">E48</f>
@@ -2051,11 +1958,10 @@
       </c>
       <c r="N47" s="0"/>
       <c r="O47" s="0"/>
-      <c r="P47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="11" t="n">
         <v>0</v>
@@ -2079,16 +1985,15 @@
         <v>1</v>
       </c>
       <c r="O48" s="0"/>
-      <c r="P48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="7" t="n">
         <f aca="false">E50+E52+E54</f>
@@ -2108,11 +2013,10 @@
       <c r="K49" s="5"/>
       <c r="N49" s="0"/>
       <c r="O49" s="0"/>
-      <c r="P49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>1</v>
@@ -2143,11 +2047,10 @@
       </c>
       <c r="N50" s="0"/>
       <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" s="11" t="n">
         <v>0</v>
@@ -2171,11 +2074,10 @@
         <v>1</v>
       </c>
       <c r="O51" s="0"/>
-      <c r="P51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>1</v>
@@ -2206,11 +2108,10 @@
       </c>
       <c r="N52" s="0"/>
       <c r="O52" s="0"/>
-      <c r="P52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="11" t="n">
         <v>0</v>
@@ -2234,11 +2135,10 @@
         <v>1</v>
       </c>
       <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>1</v>
@@ -2268,11 +2168,10 @@
         <v>6.25</v>
       </c>
       <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="11" t="n">
         <v>0</v>
@@ -2295,730 +2194,170 @@
       <c r="O55" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="P55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E56,B2:B56)</f>
+        <v>27</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F56,B2:B56)</f>
+        <v>54</v>
+      </c>
+      <c r="G57" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G56,B2:B56)</f>
+        <v>103</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14" t="n">
+        <f aca="false">SUMPRODUCT(I2:I56,B2:B56)</f>
+        <v>57.6666666666667</v>
+      </c>
+      <c r="J57" s="14" t="n">
+        <f aca="false">SUMPRODUCT(J2:J56,B2:B56)</f>
+        <v>12.6666666666667</v>
+      </c>
+      <c r="K57" s="14" t="n">
+        <f aca="false">SUMPRODUCT(K2:K56,B2:B56)</f>
+        <v>13.2777777777778</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E56,M2:M56)</f>
+        <v>1</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F56,M2:M56)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G56,M2:M56)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="7" t="n">
-        <f aca="false">E57</f>
-        <v>0</v>
-      </c>
-      <c r="F56" s="7" t="n">
-        <f aca="false">F57</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="7" t="n">
-        <f aca="false">G57</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="P56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E56,N2:N56)</f>
+        <v>20</v>
+      </c>
+      <c r="F59" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F56,N2:N56)</f>
+        <v>35</v>
+      </c>
+      <c r="G59" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G56,N2:N56)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="E57" s="9" t="n">
-        <f aca="false">E58+E73</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="9" t="n">
-        <f aca="false">F58+F73</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="9" t="n">
-        <f aca="false">G58+G73</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="P57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14" t="n">
+        <f aca="false">SUMPRODUCT(E2:E56,O2:O56)</f>
+        <v>6</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <f aca="false">SUMPRODUCT(F2:F56,O2:O56)</f>
+        <v>18</v>
+      </c>
+      <c r="G60" s="14" t="n">
+        <f aca="false">SUMPRODUCT(G2:G56,O2:O56)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="E58" s="9" t="n">
-        <f aca="false">E59+E68</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="9" t="n">
-        <f aca="false">F59+F68</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="9" t="n">
-        <f aca="false">G59+G68</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="P58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="B62" s="0"/>
+      <c r="C62" s="10" t="n">
+        <f aca="false">SQRT(K57)</f>
+        <v>3.64386851817924</v>
+      </c>
+      <c r="D62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="E59" s="9" t="n">
-        <f aca="false">E60</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="9" t="n">
-        <f aca="false">F60</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="9" t="n">
-        <f aca="false">G60</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="P59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="B63" s="0"/>
+      <c r="C63" s="10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="E60" s="9" t="n">
-        <f aca="false">E61</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="9" t="n">
-        <f aca="false">F61</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="9" t="n">
-        <f aca="false">G61</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="P60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="12" t="n">
-        <f aca="false">E62+E66</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="12" t="n">
-        <f aca="false">F62+F66</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="12" t="n">
-        <f aca="false">G62+G66</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="P61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="12" t="n">
-        <f aca="false">E63</f>
-        <v>0</v>
-      </c>
-      <c r="F62" s="12" t="n">
-        <f aca="false">F63</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="12" t="n">
-        <f aca="false">G63</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="P62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="12" t="n">
-        <f aca="false">E64</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="12" t="n">
-        <f aca="false">F64</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="12" t="n">
-        <f aca="false">G64</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="P63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="10" t="n">
-        <f aca="false">E65</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="10" t="n">
-        <f aca="false">F65</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="10" t="n">
-        <f aca="false">G65</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="10" t="n">
-        <f aca="false">(E64+4*F64+G64)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="10" t="n">
-        <f aca="false">(G64-E64)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="10" t="n">
-        <f aca="false">J64*J64</f>
-        <v>0</v>
-      </c>
-      <c r="P64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-      <c r="P65" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="10" t="n">
-        <f aca="false">E67</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="10" t="n">
-        <f aca="false">F67</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="10" t="n">
-        <f aca="false">G67</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="10" t="n">
-        <f aca="false">(E66+4*F66+G66)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="10" t="n">
-        <f aca="false">(G66-E66)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="10" t="n">
-        <f aca="false">J66*J66</f>
-        <v>0</v>
-      </c>
-      <c r="P66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="P67" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="E68" s="9" t="n">
-        <f aca="false">E69</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="9" t="n">
-        <f aca="false">F69</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="9" t="n">
-        <f aca="false">G69</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="P68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="14" t="n">
+        <f aca="false">I57-2*C62</f>
+        <v>50.3789296303082</v>
+      </c>
+      <c r="D64" s="16" t="n">
+        <f aca="false">C64*C63</f>
+        <v>75.5683944454623</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="E69" s="9" t="n">
-        <f aca="false">E70</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="9" t="n">
-        <f aca="false">F70</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="9" t="n">
-        <f aca="false">G70</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="P69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" s="12" t="n">
-        <f aca="false">E71</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="12" t="n">
-        <f aca="false">F71</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="12" t="n">
-        <f aca="false">G71</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="P70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="10" t="n">
-        <f aca="false">E72</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="10" t="n">
-        <f aca="false">F72</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="10" t="n">
-        <f aca="false">G72</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="10" t="n">
-        <f aca="false">(E71+4*F71+G71)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="10" t="n">
-        <f aca="false">(G71-E71)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="10" t="n">
-        <f aca="false">J71*J71</f>
-        <v>0</v>
-      </c>
-      <c r="P71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="P72" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="E73" s="9" t="n">
-        <f aca="false">E74</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="9" t="n">
-        <f aca="false">F74</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="9" t="n">
-        <f aca="false">G74</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="P73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="E74" s="9" t="n">
-        <f aca="false">E75</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="9" t="n">
-        <f aca="false">F75</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="9" t="n">
-        <f aca="false">G75</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="P74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10" t="n">
-        <f aca="false">E76</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="10" t="n">
-        <f aca="false">F76</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="10" t="n">
-        <f aca="false">G76</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="10" t="n">
-        <f aca="false">(E75+4*F75+G75)/6</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="10" t="n">
-        <f aca="false">(G75-E75)/6</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="10" t="n">
-        <f aca="false">J75*J75</f>
-        <v>0</v>
-      </c>
-      <c r="P75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B76" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="P76" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14" t="n">
-        <f aca="false">SUMPRODUCT(E2:E77,B2:B77)</f>
-        <v>27</v>
-      </c>
-      <c r="F78" s="14" t="n">
-        <f aca="false">SUMPRODUCT(F2:F77,B2:B77)</f>
-        <v>54</v>
-      </c>
-      <c r="G78" s="14" t="n">
-        <f aca="false">SUMPRODUCT(G2:G77,B2:B77)</f>
-        <v>103</v>
-      </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="14" t="n">
-        <f aca="false">SUMPRODUCT(I2:I77,B2:B77)</f>
-        <v>57.6666666666667</v>
-      </c>
-      <c r="J78" s="14" t="n">
-        <f aca="false">SUMPRODUCT(J2:J77,B2:B77)</f>
-        <v>12.6666666666667</v>
-      </c>
-      <c r="K78" s="14" t="n">
-        <f aca="false">SUMPRODUCT(K2:K77,B2:B77)</f>
-        <v>13.2777777777778</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14" t="n">
-        <f aca="false">SUMPRODUCT(E2:E77,M2:M77)</f>
-        <v>1</v>
-      </c>
-      <c r="F79" s="14" t="n">
-        <f aca="false">SUMPRODUCT(F2:F77,M2:M77)</f>
-        <v>1</v>
-      </c>
-      <c r="G79" s="14" t="n">
-        <f aca="false">SUMPRODUCT(G2:G77,M2:M77)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14" t="n">
-        <f aca="false">SUMPRODUCT(E2:E77,N2:N77)</f>
-        <v>20</v>
-      </c>
-      <c r="F80" s="14" t="n">
-        <f aca="false">SUMPRODUCT(F2:F77,N2:N77)</f>
-        <v>35</v>
-      </c>
-      <c r="G80" s="14" t="n">
-        <f aca="false">SUMPRODUCT(G2:G77,N2:N77)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14" t="n">
-        <f aca="false">SUMPRODUCT(E2:E77,O2:O77)</f>
-        <v>6</v>
-      </c>
-      <c r="F81" s="14" t="n">
-        <f aca="false">SUMPRODUCT(F2:F77,O2:O77)</f>
-        <v>18</v>
-      </c>
-      <c r="G81" s="14" t="n">
-        <f aca="false">SUMPRODUCT(G2:G77,O2:O77)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14" t="n">
-        <f aca="false">SUMPRODUCT(E2:E77,P2:P77)</f>
-        <v>0</v>
-      </c>
-      <c r="F82" s="14" t="n">
-        <f aca="false">SUMPRODUCT(F2:F77,P2:P77)</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="14" t="n">
-        <f aca="false">SUMPRODUCT(G2:G77,P2:P77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="0"/>
-      <c r="C84" s="10" t="n">
-        <f aca="false">SQRT(K78)</f>
-        <v>3.64386851817924</v>
-      </c>
-      <c r="D84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="0"/>
-      <c r="C85" s="10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14" t="n">
-        <f aca="false">I78-2*C84</f>
-        <v>50.3789296303082</v>
-      </c>
-      <c r="D86" s="16" t="n">
-        <f aca="false">C86*C85</f>
-        <v>75.5683944454623</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="14" t="n">
-        <f aca="false">I78+2*C84</f>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14" t="n">
+        <f aca="false">I57+2*C62</f>
         <v>64.9544037030251</v>
       </c>
-      <c r="D87" s="16" t="n">
-        <f aca="false">C87*C85</f>
+      <c r="D65" s="16" t="n">
+        <f aca="false">C65*C63</f>
         <v>97.4316055545377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K77"/>
+  <autoFilter ref="A1:K56"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Estimates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$56</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Estimates!$A$1:$K$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Estimates!$A$1:$K$56</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t xml:space="preserve">Task / Subtask</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">Min (P=95%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max (P=95%)</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="n">

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Filter</t>
   </si>
   <si>
+    <t>MVP</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">  - coding</t>
+  </si>
+  <si>
+    <t>Total (MVP)</t>
   </si>
   <si>
     <t>Standard deviation</t>
@@ -625,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,47 +662,49 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s"/>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9">
         <f>E3+E12+E17+E19</f>
@@ -717,7 +725,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="11" t="s"/>
       <c r="C3" s="10" t="s"/>
@@ -741,12 +749,14 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s"/>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D4" s="3" t="s"/>
       <c r="E4" s="13">
         <f>E5</f>
@@ -776,7 +786,7 @@
     </row>
     <row hidden="1" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>0</v>
@@ -798,12 +808,14 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s"/>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D6" s="3" t="s"/>
       <c r="E6" s="13">
         <f>E7</f>
@@ -833,7 +845,7 @@
     </row>
     <row hidden="1" r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>0</v>
@@ -855,12 +867,14 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s"/>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" s="3" t="s"/>
       <c r="E8" s="13">
         <f>E9</f>
@@ -890,7 +904,7 @@
     </row>
     <row hidden="1" r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>0</v>
@@ -912,12 +926,14 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s"/>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" s="3" t="s"/>
       <c r="E10" s="13">
         <f>E11</f>
@@ -947,7 +963,7 @@
     </row>
     <row hidden="1" r="11" spans="1:15">
       <c r="A11" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="n">
         <v>0</v>
@@ -969,7 +985,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11" t="s"/>
       <c r="C12" s="10" t="s"/>
@@ -993,12 +1009,14 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s"/>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D13" s="3" t="s"/>
       <c r="E13" s="13">
         <f>E14</f>
@@ -1028,7 +1046,7 @@
     </row>
     <row hidden="1" r="14" spans="1:15">
       <c r="A14" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>0</v>
@@ -1050,12 +1068,14 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s"/>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D15" s="3" t="s"/>
       <c r="E15" s="13">
         <f>E16</f>
@@ -1085,7 +1105,7 @@
     </row>
     <row hidden="1" r="16" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>0</v>
@@ -1107,12 +1127,14 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s"/>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="3" t="s"/>
       <c r="E17" s="13">
         <f>E18</f>
@@ -1142,7 +1164,7 @@
     </row>
     <row hidden="1" r="18" spans="1:15">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>0</v>
@@ -1164,12 +1186,14 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s"/>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D19" s="3" t="s"/>
       <c r="E19" s="13">
         <f>E20</f>
@@ -1199,7 +1223,7 @@
     </row>
     <row hidden="1" r="20" spans="1:15">
       <c r="A20" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>0</v>
@@ -1221,12 +1245,12 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="9">
         <f>E22+E29+E32</f>
@@ -1247,12 +1271,12 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11" t="s"/>
       <c r="C22" s="10" t="s"/>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="12">
         <f>E23+E25+E27</f>
@@ -1273,12 +1297,14 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s"/>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D23" s="3" t="s"/>
       <c r="E23" s="13">
         <f>E24</f>
@@ -1308,7 +1334,7 @@
     </row>
     <row hidden="1" r="24" spans="1:15">
       <c r="A24" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>0</v>
@@ -1330,12 +1356,14 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s"/>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D25" s="3" t="s"/>
       <c r="E25" s="13">
         <f>E26</f>
@@ -1365,7 +1393,7 @@
     </row>
     <row hidden="1" r="26" spans="1:15">
       <c r="A26" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>0</v>
@@ -1387,12 +1415,14 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s"/>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D27" s="3" t="s"/>
       <c r="E27" s="13">
         <f>E28</f>
@@ -1422,7 +1452,7 @@
     </row>
     <row hidden="1" r="28" spans="1:15">
       <c r="A28" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>0</v>
@@ -1444,12 +1474,14 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s"/>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D29" s="3" t="s"/>
       <c r="E29" s="13">
         <f>E30+E31</f>
@@ -1479,7 +1511,7 @@
     </row>
     <row hidden="1" r="30" spans="1:15">
       <c r="A30" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>0</v>
@@ -1501,7 +1533,7 @@
     </row>
     <row hidden="1" r="31" spans="1:15">
       <c r="A31" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>0</v>
@@ -1523,12 +1555,14 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s"/>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D32" s="3" t="s"/>
       <c r="E32" s="13">
         <f>E33+E34</f>
@@ -1558,7 +1592,7 @@
     </row>
     <row hidden="1" r="33" spans="1:15">
       <c r="A33" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="15" t="n">
         <v>0</v>
@@ -1580,7 +1614,7 @@
     </row>
     <row hidden="1" r="34" spans="1:15">
       <c r="A34" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>0</v>
@@ -1602,12 +1636,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
       <c r="D35" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="9">
         <f>E36+E41+E43+E45+E47</f>
@@ -1628,7 +1662,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="11" t="s"/>
       <c r="C36" s="10" t="s"/>
@@ -1652,12 +1686,14 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s"/>
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D37" s="3" t="s"/>
       <c r="E37" s="13">
         <f>E38</f>
@@ -1687,7 +1723,7 @@
     </row>
     <row hidden="1" r="38" spans="1:15">
       <c r="A38" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="15" t="n">
         <v>0</v>
@@ -1709,12 +1745,14 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s"/>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D39" s="3" t="s"/>
       <c r="E39" s="13">
         <f>E40</f>
@@ -1744,7 +1782,7 @@
     </row>
     <row hidden="1" r="40" spans="1:15">
       <c r="A40" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="15" t="n">
         <v>0</v>
@@ -1766,12 +1804,14 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="s"/>
+      <c r="C41" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D41" s="3" t="s"/>
       <c r="E41" s="13">
         <f>E42</f>
@@ -1801,7 +1841,7 @@
     </row>
     <row hidden="1" r="42" spans="1:15">
       <c r="A42" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>0</v>
@@ -1823,12 +1863,14 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s"/>
+      <c r="C43" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D43" s="3" t="s"/>
       <c r="E43" s="13">
         <f>E44</f>
@@ -1858,7 +1900,7 @@
     </row>
     <row hidden="1" r="44" spans="1:15">
       <c r="A44" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>0</v>
@@ -1880,12 +1922,14 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="s"/>
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D45" s="3" t="s"/>
       <c r="E45" s="13">
         <f>E46</f>
@@ -1915,7 +1959,7 @@
     </row>
     <row hidden="1" r="46" spans="1:15">
       <c r="A46" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="15" t="n">
         <v>0</v>
@@ -1937,14 +1981,16 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s"/>
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D47" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E47" s="13">
         <f>E48</f>
@@ -1974,7 +2020,7 @@
     </row>
     <row hidden="1" r="48" spans="1:15">
       <c r="A48" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" s="15" t="n">
         <v>0</v>
@@ -1996,12 +2042,12 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
       <c r="D49" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E49" s="9">
         <f>E50+E52+E54</f>
@@ -2022,12 +2068,14 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s"/>
+      <c r="C50" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D50" s="3" t="s"/>
       <c r="E50" s="13">
         <f>E51</f>
@@ -2057,7 +2105,7 @@
     </row>
     <row hidden="1" r="51" spans="1:15">
       <c r="A51" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" s="15" t="n">
         <v>0</v>
@@ -2079,12 +2127,14 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s"/>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D52" s="3" t="s"/>
       <c r="E52" s="13">
         <f>E53</f>
@@ -2114,7 +2164,7 @@
     </row>
     <row hidden="1" r="53" spans="1:15">
       <c r="A53" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" s="15" t="n">
         <v>0</v>
@@ -2136,12 +2186,14 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="s"/>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="D54" s="3" t="s"/>
       <c r="E54" s="13">
         <f>E55</f>
@@ -2171,7 +2223,7 @@
     </row>
     <row hidden="1" r="55" spans="1:15">
       <c r="A55" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" s="15" t="n">
         <v>0</v>
@@ -2193,7 +2245,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="17" t="s"/>
       <c r="C57" s="17" t="s"/>
@@ -2226,7 +2278,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="17" t="s"/>
       <c r="C58" s="17" t="s"/>
@@ -2246,7 +2298,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="17" t="s"/>
       <c r="C59" s="17" t="s"/>
@@ -2266,7 +2318,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="17" t="s"/>
       <c r="C60" s="17" t="s"/>
@@ -2285,47 +2337,80 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="13">
-        <f>SQRT(K57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="19" t="s">
+      <c r="A62" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="13" t="n">
+      <c r="B62" s="17" t="s"/>
+      <c r="C62" s="17" t="s"/>
+      <c r="D62" s="17" t="s"/>
+      <c r="E62" s="18">
+        <f>SUMPRODUCT(E2:E56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="F62" s="18">
+        <f>SUMPRODUCT(F2:F56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="G62" s="18">
+        <f>SUMPRODUCT(G2:G56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="H62" s="17" t="s"/>
+      <c r="I62" s="18">
+        <f>SUMPRODUCT(I2:I56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="J62" s="18">
+        <f>SUMPRODUCT(J2:J56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+      <c r="K62" s="18">
+        <f>SUMPRODUCT(K2:K56,B2:B56,C2:C56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="13">
+        <f>SQRT(K62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="13" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="17" t="s"/>
-      <c r="C64" s="18">
-        <f>I57-2*C62</f>
-        <v/>
-      </c>
-      <c r="D64" s="20">
-        <f>C64*C63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="17" t="s"/>
-      <c r="C65" s="18">
-        <f>I57+2*C62</f>
-        <v/>
-      </c>
-      <c r="D65" s="20">
-        <f>C65*C63</f>
+    <row r="66" spans="1:15">
+      <c r="A66" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="17" t="s"/>
+      <c r="C66" s="18">
+        <f>I62-2*C64</f>
+        <v/>
+      </c>
+      <c r="D66" s="20">
+        <f>C66*C65</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="17" t="s"/>
+      <c r="C67" s="18">
+        <f>I62+2*C64</f>
+        <v/>
+      </c>
+      <c r="D67" s="20">
+        <f>C67*C65</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>MVP</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - coding</t>
-  </si>
-  <si>
-    <t>Total (MVP)</t>
   </si>
   <si>
     <t>Standard deviation</t>
@@ -631,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,49 +656,47 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="5" t="s"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="5" t="s"/>
       <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
       <c r="D2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="9">
         <f>E3+E12+E17+E19</f>
@@ -725,7 +717,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="11" t="s"/>
       <c r="C3" s="10" t="s"/>
@@ -749,14 +741,12 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1" t="s"/>
       <c r="D4" s="3" t="s"/>
       <c r="E4" s="13">
         <f>E5</f>
@@ -786,7 +776,7 @@
     </row>
     <row hidden="1" r="5" spans="1:15">
       <c r="A5" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>0</v>
@@ -808,14 +798,12 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C6" s="1" t="s"/>
       <c r="D6" s="3" t="s"/>
       <c r="E6" s="13">
         <f>E7</f>
@@ -845,7 +833,7 @@
     </row>
     <row hidden="1" r="7" spans="1:15">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>0</v>
@@ -867,14 +855,12 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C8" s="1" t="s"/>
       <c r="D8" s="3" t="s"/>
       <c r="E8" s="13">
         <f>E9</f>
@@ -904,7 +890,7 @@
     </row>
     <row hidden="1" r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>0</v>
@@ -926,14 +912,12 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C10" s="1" t="s"/>
       <c r="D10" s="3" t="s"/>
       <c r="E10" s="13">
         <f>E11</f>
@@ -963,7 +947,7 @@
     </row>
     <row hidden="1" r="11" spans="1:15">
       <c r="A11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="15" t="n">
         <v>0</v>
@@ -985,7 +969,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11" t="s"/>
       <c r="C12" s="10" t="s"/>
@@ -1009,14 +993,12 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C13" s="1" t="s"/>
       <c r="D13" s="3" t="s"/>
       <c r="E13" s="13">
         <f>E14</f>
@@ -1046,7 +1028,7 @@
     </row>
     <row hidden="1" r="14" spans="1:15">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>0</v>
@@ -1068,14 +1050,12 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C15" s="1" t="s"/>
       <c r="D15" s="3" t="s"/>
       <c r="E15" s="13">
         <f>E16</f>
@@ -1105,7 +1085,7 @@
     </row>
     <row hidden="1" r="16" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>0</v>
@@ -1127,14 +1107,12 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C17" s="1" t="s"/>
       <c r="D17" s="3" t="s"/>
       <c r="E17" s="13">
         <f>E18</f>
@@ -1164,7 +1142,7 @@
     </row>
     <row hidden="1" r="18" spans="1:15">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>0</v>
@@ -1186,14 +1164,12 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C19" s="1" t="s"/>
       <c r="D19" s="3" t="s"/>
       <c r="E19" s="13">
         <f>E20</f>
@@ -1223,7 +1199,7 @@
     </row>
     <row hidden="1" r="20" spans="1:15">
       <c r="A20" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>0</v>
@@ -1245,12 +1221,12 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
       <c r="D21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="9">
         <f>E22+E29+E32</f>
@@ -1271,12 +1247,12 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="11" t="s"/>
       <c r="C22" s="10" t="s"/>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="12">
         <f>E23+E25+E27</f>
@@ -1297,14 +1273,12 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C23" s="1" t="s"/>
       <c r="D23" s="3" t="s"/>
       <c r="E23" s="13">
         <f>E24</f>
@@ -1334,7 +1308,7 @@
     </row>
     <row hidden="1" r="24" spans="1:15">
       <c r="A24" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>0</v>
@@ -1356,14 +1330,12 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C25" s="1" t="s"/>
       <c r="D25" s="3" t="s"/>
       <c r="E25" s="13">
         <f>E26</f>
@@ -1393,7 +1365,7 @@
     </row>
     <row hidden="1" r="26" spans="1:15">
       <c r="A26" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>0</v>
@@ -1415,14 +1387,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C27" s="1" t="s"/>
       <c r="D27" s="3" t="s"/>
       <c r="E27" s="13">
         <f>E28</f>
@@ -1452,7 +1422,7 @@
     </row>
     <row hidden="1" r="28" spans="1:15">
       <c r="A28" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>0</v>
@@ -1474,14 +1444,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C29" s="1" t="s"/>
       <c r="D29" s="3" t="s"/>
       <c r="E29" s="13">
         <f>E30+E31</f>
@@ -1511,7 +1479,7 @@
     </row>
     <row hidden="1" r="30" spans="1:15">
       <c r="A30" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>0</v>
@@ -1533,7 +1501,7 @@
     </row>
     <row hidden="1" r="31" spans="1:15">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>0</v>
@@ -1555,14 +1523,12 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C32" s="1" t="s"/>
       <c r="D32" s="3" t="s"/>
       <c r="E32" s="13">
         <f>E33+E34</f>
@@ -1592,7 +1558,7 @@
     </row>
     <row hidden="1" r="33" spans="1:15">
       <c r="A33" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="15" t="n">
         <v>0</v>
@@ -1614,7 +1580,7 @@
     </row>
     <row hidden="1" r="34" spans="1:15">
       <c r="A34" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>0</v>
@@ -1636,12 +1602,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
       <c r="D35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="9">
         <f>E36+E41+E43+E45+E47</f>
@@ -1662,7 +1628,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="11" t="s"/>
       <c r="C36" s="10" t="s"/>
@@ -1686,14 +1652,12 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C37" s="1" t="s"/>
       <c r="D37" s="3" t="s"/>
       <c r="E37" s="13">
         <f>E38</f>
@@ -1723,7 +1687,7 @@
     </row>
     <row hidden="1" r="38" spans="1:15">
       <c r="A38" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38" s="15" t="n">
         <v>0</v>
@@ -1745,14 +1709,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C39" s="1" t="s"/>
       <c r="D39" s="3" t="s"/>
       <c r="E39" s="13">
         <f>E40</f>
@@ -1782,7 +1744,7 @@
     </row>
     <row hidden="1" r="40" spans="1:15">
       <c r="A40" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="15" t="n">
         <v>0</v>
@@ -1804,14 +1766,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C41" s="1" t="s"/>
       <c r="D41" s="3" t="s"/>
       <c r="E41" s="13">
         <f>E42</f>
@@ -1841,7 +1801,7 @@
     </row>
     <row hidden="1" r="42" spans="1:15">
       <c r="A42" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>0</v>
@@ -1863,14 +1823,12 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C43" s="1" t="s"/>
       <c r="D43" s="3" t="s"/>
       <c r="E43" s="13">
         <f>E44</f>
@@ -1900,7 +1858,7 @@
     </row>
     <row hidden="1" r="44" spans="1:15">
       <c r="A44" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>0</v>
@@ -1922,14 +1880,12 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C45" s="1" t="s"/>
       <c r="D45" s="3" t="s"/>
       <c r="E45" s="13">
         <f>E46</f>
@@ -1959,7 +1915,7 @@
     </row>
     <row hidden="1" r="46" spans="1:15">
       <c r="A46" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="15" t="n">
         <v>0</v>
@@ -1981,16 +1937,14 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s"/>
+      <c r="D47" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E47" s="13">
         <f>E48</f>
@@ -2020,7 +1974,7 @@
     </row>
     <row hidden="1" r="48" spans="1:15">
       <c r="A48" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="15" t="n">
         <v>0</v>
@@ -2042,12 +1996,12 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
       <c r="D49" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49" s="9">
         <f>E50+E52+E54</f>
@@ -2068,14 +2022,12 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C50" s="1" t="s"/>
       <c r="D50" s="3" t="s"/>
       <c r="E50" s="13">
         <f>E51</f>
@@ -2105,7 +2057,7 @@
     </row>
     <row hidden="1" r="51" spans="1:15">
       <c r="A51" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" s="15" t="n">
         <v>0</v>
@@ -2127,14 +2079,12 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C52" s="1" t="s"/>
       <c r="D52" s="3" t="s"/>
       <c r="E52" s="13">
         <f>E53</f>
@@ -2164,7 +2114,7 @@
     </row>
     <row hidden="1" r="53" spans="1:15">
       <c r="A53" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="15" t="n">
         <v>0</v>
@@ -2186,14 +2136,12 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="C54" s="1" t="s"/>
       <c r="D54" s="3" t="s"/>
       <c r="E54" s="13">
         <f>E55</f>
@@ -2223,7 +2171,7 @@
     </row>
     <row hidden="1" r="55" spans="1:15">
       <c r="A55" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="15" t="n">
         <v>0</v>
@@ -2245,7 +2193,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="17" t="s"/>
       <c r="C57" s="17" t="s"/>
@@ -2278,7 +2226,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="17" t="s"/>
       <c r="C58" s="17" t="s"/>
@@ -2298,7 +2246,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="17" t="s"/>
       <c r="C59" s="17" t="s"/>
@@ -2318,7 +2266,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="17" t="s"/>
       <c r="C60" s="17" t="s"/>
@@ -2337,80 +2285,47 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="13">
+        <f>SQRT(K57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="17" t="s"/>
-      <c r="C62" s="17" t="s"/>
-      <c r="D62" s="17" t="s"/>
-      <c r="E62" s="18">
-        <f>SUMPRODUCT(E2:E56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="F62" s="18">
-        <f>SUMPRODUCT(F2:F56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="G62" s="18">
-        <f>SUMPRODUCT(G2:G56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="H62" s="17" t="s"/>
-      <c r="I62" s="18">
-        <f>SUMPRODUCT(I2:I56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="J62" s="18">
-        <f>SUMPRODUCT(J2:J56,B2:B56,C2:C56)</f>
-        <v/>
-      </c>
-      <c r="K62" s="18">
-        <f>SUMPRODUCT(K2:K56,B2:B56,C2:C56)</f>
-        <v/>
+      <c r="C63" s="13" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="13">
-        <f>SQRT(K62)</f>
+      <c r="B64" s="17" t="s"/>
+      <c r="C64" s="18">
+        <f>I57-2*C62</f>
+        <v/>
+      </c>
+      <c r="D64" s="20">
+        <f>C64*C63</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="13" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="17" t="s"/>
-      <c r="C66" s="18">
-        <f>I62-2*C64</f>
-        <v/>
-      </c>
-      <c r="D66" s="20">
-        <f>C66*C65</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="17" t="s"/>
-      <c r="C67" s="18">
-        <f>I62+2*C64</f>
-        <v/>
-      </c>
-      <c r="D67" s="20">
-        <f>C67*C65</f>
+      <c r="B65" s="17" t="s"/>
+      <c r="C65" s="18">
+        <f>I57+2*C62</f>
+        <v/>
+      </c>
+      <c r="D65" s="20">
+        <f>C65*C63</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -625,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,9 +647,10 @@
     <col customWidth="1" hidden="1" max="13" min="13" style="1" width="10"/>
     <col customWidth="1" hidden="1" max="14" min="14" style="1" width="10"/>
     <col customWidth="1" hidden="1" max="15" min="15" style="1" width="10"/>
+    <col hidden="1" max="26" min="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -688,8 +689,9 @@
       <c r="O1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="Z1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -714,8 +716,11 @@
       <c r="I2" s="6" t="s"/>
       <c r="J2" s="6" t="s"/>
       <c r="K2" s="6" t="s"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Z2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -738,8 +743,11 @@
       <c r="I3" s="10" t="s"/>
       <c r="J3" s="10" t="s"/>
       <c r="K3" s="10" t="s"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Z3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -774,7 +782,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="5" spans="1:15">
+    <row hidden="1" r="5" spans="1:26">
       <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
@@ -796,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -831,7 +839,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="7" spans="1:15">
+    <row hidden="1" r="7" spans="1:26">
       <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
@@ -853,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -888,7 +896,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="9" spans="1:15">
+    <row hidden="1" r="9" spans="1:26">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -910,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -945,7 +953,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="11" spans="1:15">
+    <row hidden="1" r="11" spans="1:26">
       <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
@@ -967,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:26">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -991,7 +999,7 @@
       <c r="J12" s="10" t="s"/>
       <c r="K12" s="10" t="s"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="14" spans="1:15">
+    <row hidden="1" r="14" spans="1:26">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="16" spans="1:15">
+    <row hidden="1" r="16" spans="1:26">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="18" spans="1:15">
+    <row hidden="1" r="18" spans="1:26">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1162,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="20" spans="1:15">
+    <row hidden="1" r="20" spans="1:26">
       <c r="A20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:26">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1245,7 +1253,7 @@
       <c r="J21" s="6" t="s"/>
       <c r="K21" s="6" t="s"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:26">
       <c r="A22" s="10" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1279,7 @@
       <c r="J22" s="10" t="s"/>
       <c r="K22" s="10" t="s"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1306,7 +1314,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="24" spans="1:15">
+    <row hidden="1" r="24" spans="1:26">
       <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1363,7 +1371,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="26" spans="1:15">
+    <row hidden="1" r="26" spans="1:26">
       <c r="A26" s="14" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="28" spans="1:15">
+    <row hidden="1" r="28" spans="1:26">
       <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="30" spans="1:15">
+    <row hidden="1" r="30" spans="1:26">
       <c r="A30" s="14" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="31" spans="1:15">
+    <row hidden="1" r="31" spans="1:26">
       <c r="A31" s="14" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="33" spans="1:15">
+    <row hidden="1" r="33" spans="1:26">
       <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row hidden="1" r="34" spans="1:15">
+    <row hidden="1" r="34" spans="1:26">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:26">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
@@ -1626,7 +1634,7 @@
       <c r="J35" s="6" t="s"/>
       <c r="K35" s="6" t="s"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:26">
       <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1658,7 @@
       <c r="J36" s="10" t="s"/>
       <c r="K36" s="10" t="s"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1685,7 +1693,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="38" spans="1:15">
+    <row hidden="1" r="38" spans="1:26">
       <c r="A38" s="14" t="s">
         <v>22</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="40" spans="1:15">
+    <row hidden="1" r="40" spans="1:26">
       <c r="A40" s="14" t="s">
         <v>22</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="42" spans="1:15">
+    <row hidden="1" r="42" spans="1:26">
       <c r="A42" s="14" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="44" spans="1:15">
+    <row hidden="1" r="44" spans="1:26">
       <c r="A44" s="14" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="46" spans="1:15">
+    <row hidden="1" r="46" spans="1:26">
       <c r="A46" s="14" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1972,7 +1980,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="48" spans="1:15">
+    <row hidden="1" r="48" spans="1:26">
       <c r="A48" s="14" t="s">
         <v>25</v>
       </c>
@@ -1994,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:26">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2020,7 +2028,7 @@
       <c r="J49" s="6" t="s"/>
       <c r="K49" s="6" t="s"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -2055,7 +2063,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="51" spans="1:15">
+    <row hidden="1" r="51" spans="1:26">
       <c r="A51" s="14" t="s">
         <v>25</v>
       </c>
@@ -2077,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2112,7 +2120,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="53" spans="1:15">
+    <row hidden="1" r="53" spans="1:26">
       <c r="A53" s="14" t="s">
         <v>25</v>
       </c>
@@ -2134,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:26">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v/>
       </c>
     </row>
-    <row hidden="1" r="55" spans="1:15">
+    <row hidden="1" r="55" spans="1:26">
       <c r="A55" s="14" t="s">
         <v>35</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:26">
       <c r="A57" s="17" t="s">
         <v>52</v>
       </c>
@@ -2224,7 +2232,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:26">
       <c r="A58" s="17" t="s">
         <v>53</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:26">
       <c r="A59" s="17" t="s">
         <v>54</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:26">
       <c r="A60" s="17" t="s">
         <v>55</v>
       </c>
@@ -2284,7 +2292,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:26">
       <c r="A62" s="19" t="s">
         <v>56</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:26">
       <c r="A63" s="19" t="s">
         <v>57</v>
       </c>
@@ -2301,7 +2309,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:26">
       <c r="A64" s="17" t="s">
         <v>58</v>
       </c>
@@ -2315,7 +2323,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:26">
       <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
@@ -2331,6 +2339,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K56"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B56" type="list">
+      <formula1>$Z$1:$Z$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estimates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$K$56</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Estimates!$A$1:$O$56</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Filter</t>
   </si>
   <si>
+    <t>Module</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -189,7 +192,7 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>K</t>
+    <t>O</t>
   </si>
   <si>
     <t>Min (P=95%)</t>
@@ -266,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -320,6 +323,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -625,7 +631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:AZ66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,22 +641,26 @@
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="40"/>
     <col customWidth="1" hidden="1" max="2" min="2" style="2" width="3"/>
-    <col customWidth="1" max="3" min="3" style="1" width="6"/>
-    <col customWidth="1" max="4" min="4" style="3" width="50"/>
-    <col customWidth="1" max="5" min="5" style="4" width="7"/>
-    <col customWidth="1" max="6" min="6" style="4" width="7"/>
-    <col customWidth="1" max="7" min="7" style="4" width="7"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7"/>
-    <col customWidth="1" max="9" min="9" style="4" width="7"/>
-    <col customWidth="1" max="10" min="10" style="4" width="7"/>
-    <col customWidth="1" max="11" min="11" style="4" width="7"/>
-    <col customWidth="1" hidden="1" max="13" min="13" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="14" min="14" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="15" min="15" style="1" width="10"/>
-    <col hidden="1" max="26" min="26"/>
+    <col customWidth="1" max="3" min="3" style="1" width="8"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" max="8" min="8" style="3" width="50"/>
+    <col customWidth="1" max="9" min="9" style="4" width="8"/>
+    <col customWidth="1" max="10" min="10" style="4" width="8"/>
+    <col customWidth="1" max="11" min="11" style="4" width="8"/>
+    <col customWidth="1" max="12" min="12" style="1" width="4"/>
+    <col customWidth="1" max="13" min="13" style="4" width="8"/>
+    <col customWidth="1" max="14" min="14" style="4" width="8"/>
+    <col customWidth="1" max="15" min="15" style="4" width="8"/>
+    <col customWidth="1" hidden="1" max="27" min="27" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="28" min="28" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="29" min="29" style="1" width="10"/>
+    <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:52">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -661,1563 +671,1776 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5" t="s"/>
+      <c r="F1" s="5" t="s"/>
+      <c r="G1" s="5" t="s"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s"/>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s"/>
+      <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="2" t="s"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AC1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ1" s="2" t="s"/>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
-      <c r="D2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9">
-        <f>E3+E12+E17+E19</f>
-        <v/>
-      </c>
-      <c r="F2" s="9">
-        <f>F3+F12+F17+F19</f>
-        <v/>
-      </c>
-      <c r="G2" s="9">
-        <f>G3+G12+G17+G19</f>
-        <v/>
-      </c>
-      <c r="H2" s="6" t="s"/>
-      <c r="I2" s="6" t="s"/>
-      <c r="J2" s="6" t="s"/>
-      <c r="K2" s="6" t="s"/>
-      <c r="Z2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="D2" s="6" t="s"/>
+      <c r="E2" s="6" t="s"/>
+      <c r="F2" s="6" t="s"/>
+      <c r="G2" s="6" t="s"/>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9">
+        <f>I3+I12+I17+I19</f>
+        <v/>
+      </c>
+      <c r="J2" s="9">
+        <f>J3+J12+J17+J19</f>
+        <v/>
+      </c>
+      <c r="K2" s="9">
+        <f>K3+K12+K17+K19</f>
+        <v/>
+      </c>
+      <c r="L2" s="6" t="s"/>
+      <c r="M2" s="6" t="s"/>
+      <c r="N2" s="6" t="s"/>
+      <c r="O2" s="6" t="s"/>
+      <c r="AZ2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="11" t="s"/>
       <c r="C3" s="10" t="s"/>
-      <c r="D3" s="3" t="s"/>
-      <c r="E3" s="12">
-        <f>E4+E6+E8+E10</f>
-        <v/>
-      </c>
-      <c r="F3" s="12">
-        <f>F4+F6+F8+F10</f>
-        <v/>
-      </c>
-      <c r="G3" s="12">
-        <f>G4+G6+G8+G10</f>
-        <v/>
-      </c>
-      <c r="H3" s="10" t="s"/>
-      <c r="I3" s="10" t="s"/>
-      <c r="J3" s="10" t="s"/>
-      <c r="K3" s="10" t="s"/>
-      <c r="Z3" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="D3" s="10" t="s"/>
+      <c r="E3" s="10" t="s"/>
+      <c r="F3" s="10" t="s"/>
+      <c r="G3" s="10" t="s"/>
+      <c r="H3" s="3" t="s"/>
+      <c r="I3" s="12">
+        <f>I4+I6+I8+I10</f>
+        <v/>
+      </c>
+      <c r="J3" s="12">
+        <f>J4+J6+J8+J10</f>
+        <v/>
+      </c>
+      <c r="K3" s="12">
+        <f>K4+K6+K8+K10</f>
+        <v/>
+      </c>
+      <c r="L3" s="10" t="s"/>
+      <c r="M3" s="10" t="s"/>
+      <c r="N3" s="10" t="s"/>
+      <c r="O3" s="10" t="s"/>
+      <c r="AZ3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s"/>
-      <c r="D4" s="3" t="s"/>
-      <c r="E4" s="13">
-        <f>E5</f>
-        <v/>
-      </c>
-      <c r="F4" s="13">
-        <f>F5</f>
-        <v/>
-      </c>
-      <c r="G4" s="13">
-        <f>G5</f>
-        <v/>
-      </c>
-      <c r="H4" s="1" t="s"/>
+      <c r="D4" s="1" t="s"/>
+      <c r="E4" s="1" t="s"/>
+      <c r="F4" s="1" t="s"/>
+      <c r="G4" s="1" t="s"/>
+      <c r="H4" s="3" t="s"/>
       <c r="I4" s="13">
-        <f>(E4+4*F4+G4)/6</f>
+        <f>I5</f>
         <v/>
       </c>
       <c r="J4" s="13">
-        <f>(G4-E4)/6</f>
+        <f>J5</f>
         <v/>
       </c>
       <c r="K4" s="13">
-        <f>J4*J4</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="5" spans="1:26">
+        <f>K5</f>
+        <v/>
+      </c>
+      <c r="L4" s="1" t="s"/>
+      <c r="M4" s="13">
+        <f>(I4+4*J4+K4)/6</f>
+        <v/>
+      </c>
+      <c r="N4" s="13">
+        <f>(K4-I4)/6</f>
+        <v/>
+      </c>
+      <c r="O4" s="13">
+        <f>N4*N4</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="5" spans="1:52">
       <c r="A5" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="14" t="s"/>
       <c r="D5" s="14" t="s"/>
-      <c r="E5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="n">
+      <c r="E5" s="14" t="s"/>
+      <c r="F5" s="14" t="s"/>
+      <c r="G5" s="14" t="s"/>
+      <c r="H5" s="14" t="s"/>
+      <c r="I5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AB5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s"/>
+      <c r="D6" s="1" t="s"/>
+      <c r="E6" s="1" t="s"/>
+      <c r="F6" s="1" t="s"/>
+      <c r="G6" s="1" t="s"/>
+      <c r="H6" s="3" t="s"/>
+      <c r="I6" s="13">
+        <f>I7</f>
+        <v/>
+      </c>
+      <c r="J6" s="13">
+        <f>J7</f>
+        <v/>
+      </c>
+      <c r="K6" s="13">
+        <f>K7</f>
+        <v/>
+      </c>
+      <c r="L6" s="1" t="s"/>
+      <c r="M6" s="13">
+        <f>(I6+4*J6+K6)/6</f>
+        <v/>
+      </c>
+      <c r="N6" s="13">
+        <f>(K6-I6)/6</f>
+        <v/>
+      </c>
+      <c r="O6" s="13">
+        <f>N6*N6</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="7" spans="1:52">
+      <c r="A7" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s"/>
-      <c r="D6" s="3" t="s"/>
-      <c r="E6" s="13">
-        <f>E7</f>
-        <v/>
-      </c>
-      <c r="F6" s="13">
-        <f>F7</f>
-        <v/>
-      </c>
-      <c r="G6" s="13">
-        <f>G7</f>
-        <v/>
-      </c>
-      <c r="H6" s="1" t="s"/>
-      <c r="I6" s="13">
-        <f>(E6+4*F6+G6)/6</f>
-        <v/>
-      </c>
-      <c r="J6" s="13">
-        <f>(G6-E6)/6</f>
-        <v/>
-      </c>
-      <c r="K6" s="13">
-        <f>J6*J6</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="7" spans="1:26">
-      <c r="A7" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="14" t="s"/>
       <c r="D7" s="14" t="s"/>
-      <c r="E7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="n">
+      <c r="E7" s="14" t="s"/>
+      <c r="F7" s="14" t="s"/>
+      <c r="G7" s="14" t="s"/>
+      <c r="H7" s="14" t="s"/>
+      <c r="I7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="K7" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AB7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s"/>
-      <c r="D8" s="3" t="s"/>
-      <c r="E8" s="13">
-        <f>E9</f>
-        <v/>
-      </c>
-      <c r="F8" s="13">
-        <f>F9</f>
-        <v/>
-      </c>
-      <c r="G8" s="13">
-        <f>G9</f>
-        <v/>
-      </c>
-      <c r="H8" s="1" t="s"/>
+      <c r="D8" s="1" t="s"/>
+      <c r="E8" s="1" t="s"/>
+      <c r="F8" s="1" t="s"/>
+      <c r="G8" s="1" t="s"/>
+      <c r="H8" s="3" t="s"/>
       <c r="I8" s="13">
-        <f>(E8+4*F8+G8)/6</f>
+        <f>I9</f>
         <v/>
       </c>
       <c r="J8" s="13">
-        <f>(G8-E8)/6</f>
+        <f>J9</f>
         <v/>
       </c>
       <c r="K8" s="13">
-        <f>J8*J8</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="9" spans="1:26">
+        <f>K9</f>
+        <v/>
+      </c>
+      <c r="L8" s="1" t="s"/>
+      <c r="M8" s="13">
+        <f>(I8+4*J8+K8)/6</f>
+        <v/>
+      </c>
+      <c r="N8" s="13">
+        <f>(K8-I8)/6</f>
+        <v/>
+      </c>
+      <c r="O8" s="13">
+        <f>N8*N8</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="9" spans="1:52">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C9" s="14" t="s"/>
       <c r="D9" s="14" t="s"/>
-      <c r="E9" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="n">
+      <c r="E9" s="14" t="s"/>
+      <c r="F9" s="14" t="s"/>
+      <c r="G9" s="14" t="s"/>
+      <c r="H9" s="14" t="s"/>
+      <c r="I9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="K9" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AB9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s"/>
-      <c r="D10" s="3" t="s"/>
-      <c r="E10" s="13">
-        <f>E11</f>
-        <v/>
-      </c>
-      <c r="F10" s="13">
-        <f>F11</f>
-        <v/>
-      </c>
-      <c r="G10" s="13">
-        <f>G11</f>
-        <v/>
-      </c>
-      <c r="H10" s="1" t="s"/>
+      <c r="D10" s="1" t="s"/>
+      <c r="E10" s="1" t="s"/>
+      <c r="F10" s="1" t="s"/>
+      <c r="G10" s="1" t="s"/>
+      <c r="H10" s="3" t="s"/>
       <c r="I10" s="13">
-        <f>(E10+4*F10+G10)/6</f>
+        <f>I11</f>
         <v/>
       </c>
       <c r="J10" s="13">
-        <f>(G10-E10)/6</f>
+        <f>J11</f>
         <v/>
       </c>
       <c r="K10" s="13">
-        <f>J10*J10</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="11" spans="1:26">
+        <f>K11</f>
+        <v/>
+      </c>
+      <c r="L10" s="1" t="s"/>
+      <c r="M10" s="13">
+        <f>(I10+4*J10+K10)/6</f>
+        <v/>
+      </c>
+      <c r="N10" s="13">
+        <f>(K10-I10)/6</f>
+        <v/>
+      </c>
+      <c r="O10" s="13">
+        <f>N10*N10</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="11" spans="1:52">
       <c r="A11" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C11" s="14" t="s"/>
       <c r="D11" s="14" t="s"/>
-      <c r="E11" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="n">
+      <c r="E11" s="14" t="s"/>
+      <c r="F11" s="14" t="s"/>
+      <c r="G11" s="14" t="s"/>
+      <c r="H11" s="14" t="s"/>
+      <c r="I11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AB11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11" t="s"/>
       <c r="C12" s="10" t="s"/>
-      <c r="D12" s="3" t="s"/>
-      <c r="E12" s="12">
-        <f>E13+E15</f>
-        <v/>
-      </c>
-      <c r="F12" s="12">
-        <f>F13+F15</f>
-        <v/>
-      </c>
-      <c r="G12" s="12">
-        <f>G13+G15</f>
-        <v/>
-      </c>
-      <c r="H12" s="10" t="s"/>
-      <c r="I12" s="10" t="s"/>
-      <c r="J12" s="10" t="s"/>
-      <c r="K12" s="10" t="s"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="D12" s="10" t="s"/>
+      <c r="E12" s="10" t="s"/>
+      <c r="F12" s="10" t="s"/>
+      <c r="G12" s="10" t="s"/>
+      <c r="H12" s="3" t="s"/>
+      <c r="I12" s="12">
+        <f>I13+I15</f>
+        <v/>
+      </c>
+      <c r="J12" s="12">
+        <f>J13+J15</f>
+        <v/>
+      </c>
+      <c r="K12" s="12">
+        <f>K13+K15</f>
+        <v/>
+      </c>
+      <c r="L12" s="10" t="s"/>
+      <c r="M12" s="10" t="s"/>
+      <c r="N12" s="10" t="s"/>
+      <c r="O12" s="10" t="s"/>
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s"/>
-      <c r="D13" s="3" t="s"/>
-      <c r="E13" s="13">
-        <f>E14</f>
-        <v/>
-      </c>
-      <c r="F13" s="13">
-        <f>F14</f>
-        <v/>
-      </c>
-      <c r="G13" s="13">
-        <f>G14</f>
-        <v/>
-      </c>
-      <c r="H13" s="1" t="s"/>
+      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s"/>
+      <c r="F13" s="1" t="s"/>
+      <c r="G13" s="1" t="s"/>
+      <c r="H13" s="3" t="s"/>
       <c r="I13" s="13">
-        <f>(E13+4*F13+G13)/6</f>
+        <f>I14</f>
         <v/>
       </c>
       <c r="J13" s="13">
-        <f>(G13-E13)/6</f>
+        <f>J14</f>
         <v/>
       </c>
       <c r="K13" s="13">
-        <f>J13*J13</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="14" spans="1:26">
+        <f>K14</f>
+        <v/>
+      </c>
+      <c r="L13" s="1" t="s"/>
+      <c r="M13" s="13">
+        <f>(I13+4*J13+K13)/6</f>
+        <v/>
+      </c>
+      <c r="N13" s="13">
+        <f>(K13-I13)/6</f>
+        <v/>
+      </c>
+      <c r="O13" s="13">
+        <f>N13*N13</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="14" spans="1:52">
       <c r="A14" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="14" t="s"/>
       <c r="D14" s="14" t="s"/>
-      <c r="E14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16" t="n">
+      <c r="E14" s="14" t="s"/>
+      <c r="F14" s="14" t="s"/>
+      <c r="G14" s="14" t="s"/>
+      <c r="H14" s="14" t="s"/>
+      <c r="I14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="O14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AC14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s"/>
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
+      <c r="F15" s="1" t="s"/>
+      <c r="G15" s="1" t="s"/>
+      <c r="H15" s="3" t="s"/>
+      <c r="I15" s="13">
+        <f>I16</f>
+        <v/>
+      </c>
+      <c r="J15" s="13">
+        <f>J16</f>
+        <v/>
+      </c>
+      <c r="K15" s="13">
+        <f>K16</f>
+        <v/>
+      </c>
+      <c r="L15" s="1" t="s"/>
+      <c r="M15" s="13">
+        <f>(I15+4*J15+K15)/6</f>
+        <v/>
+      </c>
+      <c r="N15" s="13">
+        <f>(K15-I15)/6</f>
+        <v/>
+      </c>
+      <c r="O15" s="13">
+        <f>N15*N15</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="16" spans="1:52">
+      <c r="A16" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s"/>
-      <c r="D15" s="3" t="s"/>
-      <c r="E15" s="13">
-        <f>E16</f>
-        <v/>
-      </c>
-      <c r="F15" s="13">
-        <f>F16</f>
-        <v/>
-      </c>
-      <c r="G15" s="13">
-        <f>G16</f>
-        <v/>
-      </c>
-      <c r="H15" s="1" t="s"/>
-      <c r="I15" s="13">
-        <f>(E15+4*F15+G15)/6</f>
-        <v/>
-      </c>
-      <c r="J15" s="13">
-        <f>(G15-E15)/6</f>
-        <v/>
-      </c>
-      <c r="K15" s="13">
-        <f>J15*J15</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="16" spans="1:26">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="14" t="s"/>
       <c r="D16" s="14" t="s"/>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="14" t="s"/>
+      <c r="F16" s="14" t="s"/>
+      <c r="G16" s="14" t="s"/>
+      <c r="H16" s="14" t="s"/>
+      <c r="I16" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="J16" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="K16" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="O16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AC16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s"/>
-      <c r="D17" s="3" t="s"/>
-      <c r="E17" s="13">
-        <f>E18</f>
-        <v/>
-      </c>
-      <c r="F17" s="13">
-        <f>F18</f>
-        <v/>
-      </c>
-      <c r="G17" s="13">
-        <f>G18</f>
-        <v/>
-      </c>
-      <c r="H17" s="1" t="s"/>
+      <c r="D17" s="1" t="s"/>
+      <c r="E17" s="1" t="s"/>
+      <c r="F17" s="1" t="s"/>
+      <c r="G17" s="1" t="s"/>
+      <c r="H17" s="3" t="s"/>
       <c r="I17" s="13">
-        <f>(E17+4*F17+G17)/6</f>
+        <f>I18</f>
         <v/>
       </c>
       <c r="J17" s="13">
-        <f>(G17-E17)/6</f>
+        <f>J18</f>
         <v/>
       </c>
       <c r="K17" s="13">
-        <f>J17*J17</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="18" spans="1:26">
+        <f>K18</f>
+        <v/>
+      </c>
+      <c r="L17" s="1" t="s"/>
+      <c r="M17" s="13">
+        <f>(I17+4*J17+K17)/6</f>
+        <v/>
+      </c>
+      <c r="N17" s="13">
+        <f>(K17-I17)/6</f>
+        <v/>
+      </c>
+      <c r="O17" s="13">
+        <f>N17*N17</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="18" spans="1:52">
       <c r="A18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="14" t="s"/>
       <c r="D18" s="14" t="s"/>
-      <c r="E18" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16" t="n">
+      <c r="E18" s="14" t="s"/>
+      <c r="F18" s="14" t="s"/>
+      <c r="G18" s="14" t="s"/>
+      <c r="H18" s="14" t="s"/>
+      <c r="I18" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="K18" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AB18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s"/>
+      <c r="D19" s="1" t="s"/>
+      <c r="E19" s="1" t="s"/>
+      <c r="F19" s="1" t="s"/>
+      <c r="G19" s="1" t="s"/>
+      <c r="H19" s="3" t="s"/>
+      <c r="I19" s="13">
+        <f>I20</f>
+        <v/>
+      </c>
+      <c r="J19" s="13">
+        <f>J20</f>
+        <v/>
+      </c>
+      <c r="K19" s="13">
+        <f>K20</f>
+        <v/>
+      </c>
+      <c r="L19" s="1" t="s"/>
+      <c r="M19" s="13">
+        <f>(I19+4*J19+K19)/6</f>
+        <v/>
+      </c>
+      <c r="N19" s="13">
+        <f>(K19-I19)/6</f>
+        <v/>
+      </c>
+      <c r="O19" s="13">
+        <f>N19*N19</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="20" spans="1:52">
+      <c r="A20" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s"/>
-      <c r="D19" s="3" t="s"/>
-      <c r="E19" s="13">
-        <f>E20</f>
-        <v/>
-      </c>
-      <c r="F19" s="13">
-        <f>F20</f>
-        <v/>
-      </c>
-      <c r="G19" s="13">
-        <f>G20</f>
-        <v/>
-      </c>
-      <c r="H19" s="1" t="s"/>
-      <c r="I19" s="13">
-        <f>(E19+4*F19+G19)/6</f>
-        <v/>
-      </c>
-      <c r="J19" s="13">
-        <f>(G19-E19)/6</f>
-        <v/>
-      </c>
-      <c r="K19" s="13">
-        <f>J19*J19</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="20" spans="1:26">
-      <c r="A20" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="14" t="s"/>
       <c r="D20" s="14" t="s"/>
-      <c r="E20" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16" t="n">
+      <c r="E20" s="14" t="s"/>
+      <c r="F20" s="14" t="s"/>
+      <c r="G20" s="14" t="s"/>
+      <c r="H20" s="14" t="s"/>
+      <c r="I20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AB20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
-      <c r="D21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="9">
-        <f>E22+E29+E32</f>
-        <v/>
-      </c>
-      <c r="F21" s="9">
-        <f>F22+F29+F32</f>
-        <v/>
-      </c>
-      <c r="G21" s="9">
-        <f>G22+G29+G32</f>
-        <v/>
-      </c>
-      <c r="H21" s="6" t="s"/>
-      <c r="I21" s="6" t="s"/>
-      <c r="J21" s="6" t="s"/>
-      <c r="K21" s="6" t="s"/>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="D21" s="6" t="s"/>
+      <c r="E21" s="6" t="s"/>
+      <c r="F21" s="6" t="s"/>
+      <c r="G21" s="6" t="s"/>
+      <c r="H21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="9">
+        <f>I22+I29+I32</f>
+        <v/>
+      </c>
+      <c r="J21" s="9">
+        <f>J22+J29+J32</f>
+        <v/>
+      </c>
+      <c r="K21" s="9">
+        <f>K22+K29+K32</f>
+        <v/>
+      </c>
+      <c r="L21" s="6" t="s"/>
+      <c r="M21" s="6" t="s"/>
+      <c r="N21" s="6" t="s"/>
+      <c r="O21" s="6" t="s"/>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11" t="s"/>
       <c r="C22" s="10" t="s"/>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="12">
-        <f>E23+E25+E27</f>
-        <v/>
-      </c>
-      <c r="F22" s="12">
-        <f>F23+F25+F27</f>
-        <v/>
-      </c>
-      <c r="G22" s="12">
-        <f>G23+G25+G27</f>
-        <v/>
-      </c>
-      <c r="H22" s="10" t="s"/>
-      <c r="I22" s="10" t="s"/>
-      <c r="J22" s="10" t="s"/>
-      <c r="K22" s="10" t="s"/>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="D22" s="10" t="s"/>
+      <c r="E22" s="10" t="s"/>
+      <c r="F22" s="10" t="s"/>
+      <c r="G22" s="10" t="s"/>
+      <c r="H22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="12">
+        <f>I23+I25+I27</f>
+        <v/>
+      </c>
+      <c r="J22" s="12">
+        <f>J23+J25+J27</f>
+        <v/>
+      </c>
+      <c r="K22" s="12">
+        <f>K23+K25+K27</f>
+        <v/>
+      </c>
+      <c r="L22" s="10" t="s"/>
+      <c r="M22" s="10" t="s"/>
+      <c r="N22" s="10" t="s"/>
+      <c r="O22" s="10" t="s"/>
+    </row>
+    <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s"/>
-      <c r="D23" s="3" t="s"/>
-      <c r="E23" s="13">
-        <f>E24</f>
-        <v/>
-      </c>
-      <c r="F23" s="13">
-        <f>F24</f>
-        <v/>
-      </c>
-      <c r="G23" s="13">
-        <f>G24</f>
-        <v/>
-      </c>
-      <c r="H23" s="1" t="s"/>
+      <c r="D23" s="1" t="s"/>
+      <c r="E23" s="1" t="s"/>
+      <c r="F23" s="1" t="s"/>
+      <c r="G23" s="1" t="s"/>
+      <c r="H23" s="3" t="s"/>
       <c r="I23" s="13">
-        <f>(E23+4*F23+G23)/6</f>
+        <f>I24</f>
         <v/>
       </c>
       <c r="J23" s="13">
-        <f>(G23-E23)/6</f>
+        <f>J24</f>
         <v/>
       </c>
       <c r="K23" s="13">
-        <f>J23*J23</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="24" spans="1:26">
+        <f>K24</f>
+        <v/>
+      </c>
+      <c r="L23" s="1" t="s"/>
+      <c r="M23" s="13">
+        <f>(I23+4*J23+K23)/6</f>
+        <v/>
+      </c>
+      <c r="N23" s="13">
+        <f>(K23-I23)/6</f>
+        <v/>
+      </c>
+      <c r="O23" s="13">
+        <f>N23*N23</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="24" spans="1:52">
       <c r="A24" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="14" t="s"/>
       <c r="D24" s="14" t="s"/>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="14" t="s"/>
+      <c r="F24" s="14" t="s"/>
+      <c r="G24" s="14" t="s"/>
+      <c r="H24" s="14" t="s"/>
+      <c r="I24" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="J24" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="K24" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AB24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s"/>
-      <c r="D25" s="3" t="s"/>
-      <c r="E25" s="13">
-        <f>E26</f>
-        <v/>
-      </c>
-      <c r="F25" s="13">
-        <f>F26</f>
-        <v/>
-      </c>
-      <c r="G25" s="13">
-        <f>G26</f>
-        <v/>
-      </c>
-      <c r="H25" s="1" t="s"/>
+      <c r="D25" s="1" t="s"/>
+      <c r="E25" s="1" t="s"/>
+      <c r="F25" s="1" t="s"/>
+      <c r="G25" s="1" t="s"/>
+      <c r="H25" s="3" t="s"/>
       <c r="I25" s="13">
-        <f>(E25+4*F25+G25)/6</f>
+        <f>I26</f>
         <v/>
       </c>
       <c r="J25" s="13">
-        <f>(G25-E25)/6</f>
+        <f>J26</f>
         <v/>
       </c>
       <c r="K25" s="13">
-        <f>J25*J25</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="26" spans="1:26">
+        <f>K26</f>
+        <v/>
+      </c>
+      <c r="L25" s="1" t="s"/>
+      <c r="M25" s="13">
+        <f>(I25+4*J25+K25)/6</f>
+        <v/>
+      </c>
+      <c r="N25" s="13">
+        <f>(K25-I25)/6</f>
+        <v/>
+      </c>
+      <c r="O25" s="13">
+        <f>N25*N25</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="26" spans="1:52">
       <c r="A26" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="14" t="s"/>
       <c r="D26" s="14" t="s"/>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="14" t="s"/>
+      <c r="F26" s="14" t="s"/>
+      <c r="G26" s="14" t="s"/>
+      <c r="H26" s="14" t="s"/>
+      <c r="I26" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="16" t="n">
+      <c r="J26" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G26" s="16" t="n">
+      <c r="K26" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AB26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s"/>
-      <c r="D27" s="3" t="s"/>
-      <c r="E27" s="13">
-        <f>E28</f>
-        <v/>
-      </c>
-      <c r="F27" s="13">
-        <f>F28</f>
-        <v/>
-      </c>
-      <c r="G27" s="13">
-        <f>G28</f>
-        <v/>
-      </c>
-      <c r="H27" s="1" t="s"/>
+      <c r="D27" s="1" t="s"/>
+      <c r="E27" s="1" t="s"/>
+      <c r="F27" s="1" t="s"/>
+      <c r="G27" s="1" t="s"/>
+      <c r="H27" s="3" t="s"/>
       <c r="I27" s="13">
-        <f>(E27+4*F27+G27)/6</f>
+        <f>I28</f>
         <v/>
       </c>
       <c r="J27" s="13">
-        <f>(G27-E27)/6</f>
+        <f>J28</f>
         <v/>
       </c>
       <c r="K27" s="13">
-        <f>J27*J27</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="28" spans="1:26">
+        <f>K28</f>
+        <v/>
+      </c>
+      <c r="L27" s="1" t="s"/>
+      <c r="M27" s="13">
+        <f>(I27+4*J27+K27)/6</f>
+        <v/>
+      </c>
+      <c r="N27" s="13">
+        <f>(K27-I27)/6</f>
+        <v/>
+      </c>
+      <c r="O27" s="13">
+        <f>N27*N27</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="28" spans="1:52">
       <c r="A28" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="14" t="s"/>
       <c r="D28" s="14" t="s"/>
-      <c r="E28" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16" t="n">
+      <c r="E28" s="14" t="s"/>
+      <c r="F28" s="14" t="s"/>
+      <c r="G28" s="14" t="s"/>
+      <c r="H28" s="14" t="s"/>
+      <c r="I28" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="K28" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AB28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s"/>
-      <c r="D29" s="3" t="s"/>
-      <c r="E29" s="13">
-        <f>E30+E31</f>
-        <v/>
-      </c>
-      <c r="F29" s="13">
-        <f>F30+F31</f>
-        <v/>
-      </c>
-      <c r="G29" s="13">
-        <f>G30+G31</f>
-        <v/>
-      </c>
-      <c r="H29" s="1" t="s"/>
+      <c r="D29" s="1" t="s"/>
+      <c r="E29" s="1" t="s"/>
+      <c r="F29" s="1" t="s"/>
+      <c r="G29" s="1" t="s"/>
+      <c r="H29" s="3" t="s"/>
       <c r="I29" s="13">
-        <f>(E29+4*F29+G29)/6</f>
+        <f>I30+I31</f>
         <v/>
       </c>
       <c r="J29" s="13">
-        <f>(G29-E29)/6</f>
+        <f>J30+J31</f>
         <v/>
       </c>
       <c r="K29" s="13">
-        <f>J29*J29</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="30" spans="1:26">
+        <f>K30+K31</f>
+        <v/>
+      </c>
+      <c r="L29" s="1" t="s"/>
+      <c r="M29" s="13">
+        <f>(I29+4*J29+K29)/6</f>
+        <v/>
+      </c>
+      <c r="N29" s="13">
+        <f>(K29-I29)/6</f>
+        <v/>
+      </c>
+      <c r="O29" s="13">
+        <f>N29*N29</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="30" spans="1:52">
       <c r="A30" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="14" t="s"/>
       <c r="D30" s="14" t="s"/>
-      <c r="E30" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="16" t="n">
+      <c r="E30" s="14" t="s"/>
+      <c r="F30" s="14" t="s"/>
+      <c r="G30" s="14" t="s"/>
+      <c r="H30" s="14" t="s"/>
+      <c r="I30" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G30" s="16" t="n">
+      <c r="K30" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row hidden="1" r="31" spans="1:26">
+      <c r="AB30" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row hidden="1" r="31" spans="1:52">
       <c r="A31" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C31" s="14" t="s"/>
       <c r="D31" s="14" t="s"/>
-      <c r="E31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16" t="n">
+      <c r="E31" s="14" t="s"/>
+      <c r="F31" s="14" t="s"/>
+      <c r="G31" s="14" t="s"/>
+      <c r="H31" s="14" t="s"/>
+      <c r="I31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="O31" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AC31" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s"/>
-      <c r="D32" s="3" t="s"/>
-      <c r="E32" s="13">
-        <f>E33+E34</f>
-        <v/>
-      </c>
-      <c r="F32" s="13">
-        <f>F33+F34</f>
-        <v/>
-      </c>
-      <c r="G32" s="13">
-        <f>G33+G34</f>
-        <v/>
-      </c>
-      <c r="H32" s="1" t="s"/>
+      <c r="D32" s="1" t="s"/>
+      <c r="E32" s="1" t="s"/>
+      <c r="F32" s="1" t="s"/>
+      <c r="G32" s="1" t="s"/>
+      <c r="H32" s="3" t="s"/>
       <c r="I32" s="13">
-        <f>(E32+4*F32+G32)/6</f>
+        <f>I33+I34</f>
         <v/>
       </c>
       <c r="J32" s="13">
-        <f>(G32-E32)/6</f>
+        <f>J33+J34</f>
         <v/>
       </c>
       <c r="K32" s="13">
-        <f>J32*J32</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="33" spans="1:26">
+        <f>K33+K34</f>
+        <v/>
+      </c>
+      <c r="L32" s="1" t="s"/>
+      <c r="M32" s="13">
+        <f>(I32+4*J32+K32)/6</f>
+        <v/>
+      </c>
+      <c r="N32" s="13">
+        <f>(K32-I32)/6</f>
+        <v/>
+      </c>
+      <c r="O32" s="13">
+        <f>N32*N32</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="33" spans="1:52">
       <c r="A33" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C33" s="14" t="s"/>
       <c r="D33" s="14" t="s"/>
-      <c r="E33" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16" t="n">
+      <c r="E33" s="14" t="s"/>
+      <c r="F33" s="14" t="s"/>
+      <c r="G33" s="14" t="s"/>
+      <c r="H33" s="14" t="s"/>
+      <c r="I33" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row hidden="1" r="34" spans="1:26">
+      <c r="AB33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row hidden="1" r="34" spans="1:52">
       <c r="A34" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="14" t="s"/>
       <c r="D34" s="14" t="s"/>
-      <c r="E34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16" t="n">
+      <c r="E34" s="14" t="s"/>
+      <c r="F34" s="14" t="s"/>
+      <c r="G34" s="14" t="s"/>
+      <c r="H34" s="14" t="s"/>
+      <c r="I34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="16" t="n">
+      <c r="K34" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="O34" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AC34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
-      <c r="D35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="9">
-        <f>E36+E41+E43+E45+E47</f>
-        <v/>
-      </c>
-      <c r="F35" s="9">
-        <f>F36+F41+F43+F45+F47</f>
-        <v/>
-      </c>
-      <c r="G35" s="9">
-        <f>G36+G41+G43+G45+G47</f>
-        <v/>
-      </c>
-      <c r="H35" s="6" t="s"/>
-      <c r="I35" s="6" t="s"/>
-      <c r="J35" s="6" t="s"/>
-      <c r="K35" s="6" t="s"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="D35" s="6" t="s"/>
+      <c r="E35" s="6" t="s"/>
+      <c r="F35" s="6" t="s"/>
+      <c r="G35" s="6" t="s"/>
+      <c r="H35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="9">
+        <f>I36+I41+I43+I45+I47</f>
+        <v/>
+      </c>
+      <c r="J35" s="9">
+        <f>J36+J41+J43+J45+J47</f>
+        <v/>
+      </c>
+      <c r="K35" s="9">
+        <f>K36+K41+K43+K45+K47</f>
+        <v/>
+      </c>
+      <c r="L35" s="6" t="s"/>
+      <c r="M35" s="6" t="s"/>
+      <c r="N35" s="6" t="s"/>
+      <c r="O35" s="6" t="s"/>
+    </row>
+    <row r="36" spans="1:52">
       <c r="A36" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" s="11" t="s"/>
       <c r="C36" s="10" t="s"/>
-      <c r="D36" s="3" t="s"/>
-      <c r="E36" s="12">
-        <f>E37+E39</f>
-        <v/>
-      </c>
-      <c r="F36" s="12">
-        <f>F37+F39</f>
-        <v/>
-      </c>
-      <c r="G36" s="12">
-        <f>G37+G39</f>
-        <v/>
-      </c>
-      <c r="H36" s="10" t="s"/>
-      <c r="I36" s="10" t="s"/>
-      <c r="J36" s="10" t="s"/>
-      <c r="K36" s="10" t="s"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="D36" s="10" t="s"/>
+      <c r="E36" s="10" t="s"/>
+      <c r="F36" s="10" t="s"/>
+      <c r="G36" s="10" t="s"/>
+      <c r="H36" s="3" t="s"/>
+      <c r="I36" s="12">
+        <f>I37+I39</f>
+        <v/>
+      </c>
+      <c r="J36" s="12">
+        <f>J37+J39</f>
+        <v/>
+      </c>
+      <c r="K36" s="12">
+        <f>K37+K39</f>
+        <v/>
+      </c>
+      <c r="L36" s="10" t="s"/>
+      <c r="M36" s="10" t="s"/>
+      <c r="N36" s="10" t="s"/>
+      <c r="O36" s="10" t="s"/>
+    </row>
+    <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s"/>
-      <c r="D37" s="3" t="s"/>
-      <c r="E37" s="13">
-        <f>E38</f>
-        <v/>
-      </c>
-      <c r="F37" s="13">
-        <f>F38</f>
-        <v/>
-      </c>
-      <c r="G37" s="13">
-        <f>G38</f>
-        <v/>
-      </c>
-      <c r="H37" s="1" t="s"/>
+      <c r="D37" s="1" t="s"/>
+      <c r="E37" s="1" t="s"/>
+      <c r="F37" s="1" t="s"/>
+      <c r="G37" s="1" t="s"/>
+      <c r="H37" s="3" t="s"/>
       <c r="I37" s="13">
-        <f>(E37+4*F37+G37)/6</f>
+        <f>I38</f>
         <v/>
       </c>
       <c r="J37" s="13">
-        <f>(G37-E37)/6</f>
+        <f>J38</f>
         <v/>
       </c>
       <c r="K37" s="13">
-        <f>J37*J37</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="38" spans="1:26">
+        <f>K38</f>
+        <v/>
+      </c>
+      <c r="L37" s="1" t="s"/>
+      <c r="M37" s="13">
+        <f>(I37+4*J37+K37)/6</f>
+        <v/>
+      </c>
+      <c r="N37" s="13">
+        <f>(K37-I37)/6</f>
+        <v/>
+      </c>
+      <c r="O37" s="13">
+        <f>N37*N37</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="38" spans="1:52">
       <c r="A38" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="14" t="s"/>
       <c r="D38" s="14" t="s"/>
-      <c r="E38" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="16" t="n">
+      <c r="E38" s="14" t="s"/>
+      <c r="F38" s="14" t="s"/>
+      <c r="G38" s="14" t="s"/>
+      <c r="H38" s="14" t="s"/>
+      <c r="I38" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="16" t="n">
+      <c r="K38" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="O38" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AC38" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s"/>
-      <c r="D39" s="3" t="s"/>
-      <c r="E39" s="13">
-        <f>E40</f>
-        <v/>
-      </c>
-      <c r="F39" s="13">
-        <f>F40</f>
-        <v/>
-      </c>
-      <c r="G39" s="13">
-        <f>G40</f>
-        <v/>
-      </c>
-      <c r="H39" s="1" t="s"/>
+      <c r="D39" s="1" t="s"/>
+      <c r="E39" s="1" t="s"/>
+      <c r="F39" s="1" t="s"/>
+      <c r="G39" s="1" t="s"/>
+      <c r="H39" s="3" t="s"/>
       <c r="I39" s="13">
-        <f>(E39+4*F39+G39)/6</f>
+        <f>I40</f>
         <v/>
       </c>
       <c r="J39" s="13">
-        <f>(G39-E39)/6</f>
+        <f>J40</f>
         <v/>
       </c>
       <c r="K39" s="13">
-        <f>J39*J39</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="40" spans="1:26">
+        <f>K40</f>
+        <v/>
+      </c>
+      <c r="L39" s="1" t="s"/>
+      <c r="M39" s="13">
+        <f>(I39+4*J39+K39)/6</f>
+        <v/>
+      </c>
+      <c r="N39" s="13">
+        <f>(K39-I39)/6</f>
+        <v/>
+      </c>
+      <c r="O39" s="13">
+        <f>N39*N39</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="40" spans="1:52">
       <c r="A40" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="14" t="s"/>
       <c r="D40" s="14" t="s"/>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="14" t="s"/>
+      <c r="F40" s="14" t="s"/>
+      <c r="G40" s="14" t="s"/>
+      <c r="H40" s="14" t="s"/>
+      <c r="I40" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F40" s="16" t="n">
+      <c r="J40" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G40" s="16" t="n">
+      <c r="K40" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="O40" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AC40" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s"/>
-      <c r="D41" s="3" t="s"/>
-      <c r="E41" s="13">
-        <f>E42</f>
-        <v/>
-      </c>
-      <c r="F41" s="13">
-        <f>F42</f>
-        <v/>
-      </c>
-      <c r="G41" s="13">
-        <f>G42</f>
-        <v/>
-      </c>
-      <c r="H41" s="1" t="s"/>
+      <c r="D41" s="1" t="s"/>
+      <c r="E41" s="1" t="s"/>
+      <c r="F41" s="1" t="s"/>
+      <c r="G41" s="1" t="s"/>
+      <c r="H41" s="3" t="s"/>
       <c r="I41" s="13">
-        <f>(E41+4*F41+G41)/6</f>
+        <f>I42</f>
         <v/>
       </c>
       <c r="J41" s="13">
-        <f>(G41-E41)/6</f>
+        <f>J42</f>
         <v/>
       </c>
       <c r="K41" s="13">
-        <f>J41*J41</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="42" spans="1:26">
+        <f>K42</f>
+        <v/>
+      </c>
+      <c r="L41" s="1" t="s"/>
+      <c r="M41" s="13">
+        <f>(I41+4*J41+K41)/6</f>
+        <v/>
+      </c>
+      <c r="N41" s="13">
+        <f>(K41-I41)/6</f>
+        <v/>
+      </c>
+      <c r="O41" s="13">
+        <f>N41*N41</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="42" spans="1:52">
       <c r="A42" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="14" t="s"/>
       <c r="D42" s="14" t="s"/>
-      <c r="E42" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16" t="n">
+      <c r="E42" s="14" t="s"/>
+      <c r="F42" s="14" t="s"/>
+      <c r="G42" s="14" t="s"/>
+      <c r="H42" s="14" t="s"/>
+      <c r="I42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="M42" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s"/>
-      <c r="D43" s="3" t="s"/>
-      <c r="E43" s="13">
-        <f>E44</f>
-        <v/>
-      </c>
-      <c r="F43" s="13">
-        <f>F44</f>
-        <v/>
-      </c>
-      <c r="G43" s="13">
-        <f>G44</f>
-        <v/>
-      </c>
-      <c r="H43" s="1" t="s"/>
+      <c r="D43" s="1" t="s"/>
+      <c r="E43" s="1" t="s"/>
+      <c r="F43" s="1" t="s"/>
+      <c r="G43" s="1" t="s"/>
+      <c r="H43" s="3" t="s"/>
       <c r="I43" s="13">
-        <f>(E43+4*F43+G43)/6</f>
+        <f>I44</f>
         <v/>
       </c>
       <c r="J43" s="13">
-        <f>(G43-E43)/6</f>
+        <f>J44</f>
         <v/>
       </c>
       <c r="K43" s="13">
-        <f>J43*J43</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="44" spans="1:26">
+        <f>K44</f>
+        <v/>
+      </c>
+      <c r="L43" s="1" t="s"/>
+      <c r="M43" s="13">
+        <f>(I43+4*J43+K43)/6</f>
+        <v/>
+      </c>
+      <c r="N43" s="13">
+        <f>(K43-I43)/6</f>
+        <v/>
+      </c>
+      <c r="O43" s="13">
+        <f>N43*N43</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="44" spans="1:52">
       <c r="A44" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="14" t="s"/>
       <c r="D44" s="14" t="s"/>
-      <c r="E44" s="16" t="n">
+      <c r="E44" s="14" t="s"/>
+      <c r="F44" s="14" t="s"/>
+      <c r="G44" s="14" t="s"/>
+      <c r="H44" s="14" t="s"/>
+      <c r="I44" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F44" s="16" t="n">
+      <c r="J44" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="K44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="N44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AB44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s"/>
-      <c r="D45" s="3" t="s"/>
-      <c r="E45" s="13">
-        <f>E46</f>
-        <v/>
-      </c>
-      <c r="F45" s="13">
-        <f>F46</f>
-        <v/>
-      </c>
-      <c r="G45" s="13">
-        <f>G46</f>
-        <v/>
-      </c>
-      <c r="H45" s="1" t="s"/>
+      <c r="D45" s="1" t="s"/>
+      <c r="E45" s="1" t="s"/>
+      <c r="F45" s="1" t="s"/>
+      <c r="G45" s="1" t="s"/>
+      <c r="H45" s="3" t="s"/>
       <c r="I45" s="13">
-        <f>(E45+4*F45+G45)/6</f>
+        <f>I46</f>
         <v/>
       </c>
       <c r="J45" s="13">
-        <f>(G45-E45)/6</f>
+        <f>J46</f>
         <v/>
       </c>
       <c r="K45" s="13">
-        <f>J45*J45</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="46" spans="1:26">
+        <f>K46</f>
+        <v/>
+      </c>
+      <c r="L45" s="1" t="s"/>
+      <c r="M45" s="13">
+        <f>(I45+4*J45+K45)/6</f>
+        <v/>
+      </c>
+      <c r="N45" s="13">
+        <f>(K45-I45)/6</f>
+        <v/>
+      </c>
+      <c r="O45" s="13">
+        <f>N45*N45</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="46" spans="1:52">
       <c r="A46" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="14" t="s"/>
       <c r="D46" s="14" t="s"/>
-      <c r="E46" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="16" t="n">
+      <c r="E46" s="14" t="s"/>
+      <c r="F46" s="14" t="s"/>
+      <c r="G46" s="14" t="s"/>
+      <c r="H46" s="14" t="s"/>
+      <c r="I46" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AB46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s"/>
-      <c r="D47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="13">
-        <f>E48</f>
-        <v/>
-      </c>
-      <c r="F47" s="13">
-        <f>F48</f>
-        <v/>
-      </c>
-      <c r="G47" s="13">
-        <f>G48</f>
-        <v/>
-      </c>
-      <c r="H47" s="1" t="s"/>
+      <c r="D47" s="1" t="s"/>
+      <c r="E47" s="1" t="s"/>
+      <c r="F47" s="1" t="s"/>
+      <c r="G47" s="1" t="s"/>
+      <c r="H47" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I47" s="13">
-        <f>(E47+4*F47+G47)/6</f>
+        <f>I48</f>
         <v/>
       </c>
       <c r="J47" s="13">
-        <f>(G47-E47)/6</f>
+        <f>J48</f>
         <v/>
       </c>
       <c r="K47" s="13">
-        <f>J47*J47</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="48" spans="1:26">
+        <f>K48</f>
+        <v/>
+      </c>
+      <c r="L47" s="1" t="s"/>
+      <c r="M47" s="13">
+        <f>(I47+4*J47+K47)/6</f>
+        <v/>
+      </c>
+      <c r="N47" s="13">
+        <f>(K47-I47)/6</f>
+        <v/>
+      </c>
+      <c r="O47" s="13">
+        <f>N47*N47</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="48" spans="1:52">
       <c r="A48" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C48" s="14" t="s"/>
       <c r="D48" s="14" t="s"/>
-      <c r="E48" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="16" t="n">
+      <c r="E48" s="14" t="s"/>
+      <c r="F48" s="14" t="s"/>
+      <c r="G48" s="14" t="s"/>
+      <c r="H48" s="14" t="s"/>
+      <c r="I48" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="N48" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AB48" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
-      <c r="D49" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="9">
-        <f>E50+E52+E54</f>
-        <v/>
-      </c>
-      <c r="F49" s="9">
-        <f>F50+F52+F54</f>
-        <v/>
-      </c>
-      <c r="G49" s="9">
-        <f>G50+G52+G54</f>
-        <v/>
-      </c>
-      <c r="H49" s="6" t="s"/>
-      <c r="I49" s="6" t="s"/>
-      <c r="J49" s="6" t="s"/>
-      <c r="K49" s="6" t="s"/>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="D49" s="6" t="s"/>
+      <c r="E49" s="6" t="s"/>
+      <c r="F49" s="6" t="s"/>
+      <c r="G49" s="6" t="s"/>
+      <c r="H49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="9">
+        <f>I50+I52+I54</f>
+        <v/>
+      </c>
+      <c r="J49" s="9">
+        <f>J50+J52+J54</f>
+        <v/>
+      </c>
+      <c r="K49" s="9">
+        <f>K50+K52+K54</f>
+        <v/>
+      </c>
+      <c r="L49" s="6" t="s"/>
+      <c r="M49" s="6" t="s"/>
+      <c r="N49" s="6" t="s"/>
+      <c r="O49" s="6" t="s"/>
+    </row>
+    <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s"/>
-      <c r="D50" s="3" t="s"/>
-      <c r="E50" s="13">
-        <f>E51</f>
-        <v/>
-      </c>
-      <c r="F50" s="13">
-        <f>F51</f>
-        <v/>
-      </c>
-      <c r="G50" s="13">
-        <f>G51</f>
-        <v/>
-      </c>
-      <c r="H50" s="1" t="s"/>
+      <c r="D50" s="1" t="s"/>
+      <c r="E50" s="1" t="s"/>
+      <c r="F50" s="1" t="s"/>
+      <c r="G50" s="1" t="s"/>
+      <c r="H50" s="3" t="s"/>
       <c r="I50" s="13">
-        <f>(E50+4*F50+G50)/6</f>
+        <f>I51</f>
         <v/>
       </c>
       <c r="J50" s="13">
-        <f>(G50-E50)/6</f>
+        <f>J51</f>
         <v/>
       </c>
       <c r="K50" s="13">
-        <f>J50*J50</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="51" spans="1:26">
+        <f>K51</f>
+        <v/>
+      </c>
+      <c r="L50" s="1" t="s"/>
+      <c r="M50" s="13">
+        <f>(I50+4*J50+K50)/6</f>
+        <v/>
+      </c>
+      <c r="N50" s="13">
+        <f>(K50-I50)/6</f>
+        <v/>
+      </c>
+      <c r="O50" s="13">
+        <f>N50*N50</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="51" spans="1:52">
       <c r="A51" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C51" s="14" t="s"/>
       <c r="D51" s="14" t="s"/>
-      <c r="E51" s="16" t="n">
+      <c r="E51" s="14" t="s"/>
+      <c r="F51" s="14" t="s"/>
+      <c r="G51" s="14" t="s"/>
+      <c r="H51" s="14" t="s"/>
+      <c r="I51" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="16" t="n">
+      <c r="J51" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G51" s="16" t="n">
+      <c r="K51" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="N51" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AB51" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s"/>
-      <c r="D52" s="3" t="s"/>
-      <c r="E52" s="13">
-        <f>E53</f>
-        <v/>
-      </c>
-      <c r="F52" s="13">
-        <f>F53</f>
-        <v/>
-      </c>
-      <c r="G52" s="13">
-        <f>G53</f>
-        <v/>
-      </c>
-      <c r="H52" s="1" t="s"/>
+      <c r="D52" s="1" t="s"/>
+      <c r="E52" s="1" t="s"/>
+      <c r="F52" s="1" t="s"/>
+      <c r="G52" s="1" t="s"/>
+      <c r="H52" s="3" t="s"/>
       <c r="I52" s="13">
-        <f>(E52+4*F52+G52)/6</f>
+        <f>I53</f>
         <v/>
       </c>
       <c r="J52" s="13">
-        <f>(G52-E52)/6</f>
+        <f>J53</f>
         <v/>
       </c>
       <c r="K52" s="13">
-        <f>J52*J52</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="53" spans="1:26">
+        <f>K53</f>
+        <v/>
+      </c>
+      <c r="L52" s="1" t="s"/>
+      <c r="M52" s="13">
+        <f>(I52+4*J52+K52)/6</f>
+        <v/>
+      </c>
+      <c r="N52" s="13">
+        <f>(K52-I52)/6</f>
+        <v/>
+      </c>
+      <c r="O52" s="13">
+        <f>N52*N52</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="53" spans="1:52">
       <c r="A53" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="14" t="s"/>
       <c r="D53" s="14" t="s"/>
-      <c r="E53" s="16" t="n">
+      <c r="E53" s="14" t="s"/>
+      <c r="F53" s="14" t="s"/>
+      <c r="G53" s="14" t="s"/>
+      <c r="H53" s="14" t="s"/>
+      <c r="I53" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F53" s="16" t="n">
+      <c r="J53" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G53" s="16" t="n">
+      <c r="K53" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="N53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AB53" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s"/>
+      <c r="D54" s="1" t="s"/>
+      <c r="E54" s="1" t="s"/>
+      <c r="F54" s="1" t="s"/>
+      <c r="G54" s="1" t="s"/>
+      <c r="H54" s="3" t="s"/>
+      <c r="I54" s="13">
+        <f>I55</f>
+        <v/>
+      </c>
+      <c r="J54" s="13">
+        <f>J55</f>
+        <v/>
+      </c>
+      <c r="K54" s="13">
+        <f>K55</f>
+        <v/>
+      </c>
+      <c r="L54" s="1" t="s"/>
+      <c r="M54" s="13">
+        <f>(I54+4*J54+K54)/6</f>
+        <v/>
+      </c>
+      <c r="N54" s="13">
+        <f>(K54-I54)/6</f>
+        <v/>
+      </c>
+      <c r="O54" s="13">
+        <f>N54*N54</f>
+        <v/>
+      </c>
+    </row>
+    <row hidden="1" r="55" spans="1:52">
+      <c r="A55" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s"/>
-      <c r="D54" s="3" t="s"/>
-      <c r="E54" s="13">
-        <f>E55</f>
-        <v/>
-      </c>
-      <c r="F54" s="13">
-        <f>F55</f>
-        <v/>
-      </c>
-      <c r="G54" s="13">
-        <f>G55</f>
-        <v/>
-      </c>
-      <c r="H54" s="1" t="s"/>
-      <c r="I54" s="13">
-        <f>(E54+4*F54+G54)/6</f>
-        <v/>
-      </c>
-      <c r="J54" s="13">
-        <f>(G54-E54)/6</f>
-        <v/>
-      </c>
-      <c r="K54" s="13">
-        <f>J54*J54</f>
-        <v/>
-      </c>
-    </row>
-    <row hidden="1" r="55" spans="1:26">
-      <c r="A55" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="B55" s="15" t="n">
         <v>0</v>
       </c>
       <c r="C55" s="14" t="s"/>
       <c r="D55" s="14" t="s"/>
-      <c r="E55" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="16" t="n">
+      <c r="E55" s="14" t="s"/>
+      <c r="F55" s="14" t="s"/>
+      <c r="G55" s="14" t="s"/>
+      <c r="H55" s="14" t="s"/>
+      <c r="I55" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="16" t="n">
+      <c r="K55" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="O55" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AC55" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
       <c r="A57" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B57" s="17" t="s"/>
       <c r="C57" s="17" t="s"/>
       <c r="D57" s="17" t="s"/>
-      <c r="E57" s="18">
-        <f>SUMPRODUCT(E2:E56,B2:B56)</f>
-        <v/>
-      </c>
-      <c r="F57" s="18">
-        <f>SUMPRODUCT(F2:F56,B2:B56)</f>
-        <v/>
-      </c>
-      <c r="G57" s="18">
-        <f>SUMPRODUCT(G2:G56,B2:B56)</f>
-        <v/>
-      </c>
+      <c r="E57" s="17" t="s"/>
+      <c r="F57" s="17" t="s"/>
+      <c r="G57" s="17" t="s"/>
       <c r="H57" s="17" t="s"/>
       <c r="I57" s="18">
         <f>SUMPRODUCT(I2:I56,B2:B56)</f>
@@ -2231,117 +2454,174 @@
         <f>SUMPRODUCT(K2:K56,B2:B56)</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="L57" s="17" t="s"/>
+      <c r="M57" s="18">
+        <f>SUMPRODUCT(M2:M56,B2:B56)</f>
+        <v/>
+      </c>
+      <c r="N57" s="18">
+        <f>SUMPRODUCT(N2:N56,B2:B56)</f>
+        <v/>
+      </c>
+      <c r="O57" s="18">
+        <f>SUMPRODUCT(O2:O56,B2:B56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
       <c r="A58" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B58" s="17" t="s"/>
       <c r="C58" s="17" t="s"/>
       <c r="D58" s="17" t="s"/>
-      <c r="E58" s="18">
-        <f>SUMPRODUCT(E2:E56,M2:M56)</f>
-        <v/>
-      </c>
-      <c r="F58" s="18">
-        <f>SUMPRODUCT(F2:F56,M2:M56)</f>
-        <v/>
-      </c>
-      <c r="G58" s="18">
-        <f>SUMPRODUCT(G2:G56,M2:M56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="E58" s="17" t="s"/>
+      <c r="F58" s="17" t="s"/>
+      <c r="G58" s="17" t="s"/>
+      <c r="H58" s="17" t="s"/>
+      <c r="I58" s="18">
+        <f>SUMPRODUCT(I2:I56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="J58" s="18">
+        <f>SUMPRODUCT(J2:J56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="K58" s="18">
+        <f>SUMPRODUCT(K2:K56,AA2:AA56)</f>
+        <v/>
+      </c>
+      <c r="M58" s="18">
+        <f>(I58+4*J58+K58)/6</f>
+        <v/>
+      </c>
+      <c r="N58" s="19">
+        <f>(M58/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
       <c r="A59" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="17" t="s"/>
       <c r="C59" s="17" t="s"/>
       <c r="D59" s="17" t="s"/>
-      <c r="E59" s="18">
-        <f>SUMPRODUCT(E2:E56,N2:N56)</f>
-        <v/>
-      </c>
-      <c r="F59" s="18">
-        <f>SUMPRODUCT(F2:F56,N2:N56)</f>
-        <v/>
-      </c>
-      <c r="G59" s="18">
-        <f>SUMPRODUCT(G2:G56,N2:N56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="E59" s="17" t="s"/>
+      <c r="F59" s="17" t="s"/>
+      <c r="G59" s="17" t="s"/>
+      <c r="H59" s="17" t="s"/>
+      <c r="I59" s="18">
+        <f>SUMPRODUCT(I2:I56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="J59" s="18">
+        <f>SUMPRODUCT(J2:J56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="K59" s="18">
+        <f>SUMPRODUCT(K2:K56,AB2:AB56)</f>
+        <v/>
+      </c>
+      <c r="M59" s="18">
+        <f>(I59+4*J59+K59)/6</f>
+        <v/>
+      </c>
+      <c r="N59" s="19">
+        <f>(M59/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
       <c r="A60" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" s="17" t="s"/>
       <c r="C60" s="17" t="s"/>
       <c r="D60" s="17" t="s"/>
-      <c r="E60" s="18">
-        <f>SUMPRODUCT(E2:E56,O2:O56)</f>
-        <v/>
-      </c>
-      <c r="F60" s="18">
-        <f>SUMPRODUCT(F2:F56,O2:O56)</f>
-        <v/>
-      </c>
-      <c r="G60" s="18">
-        <f>SUMPRODUCT(G2:G56,O2:O56)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="19" t="s">
-        <v>56</v>
+      <c r="E60" s="17" t="s"/>
+      <c r="F60" s="17" t="s"/>
+      <c r="G60" s="17" t="s"/>
+      <c r="H60" s="17" t="s"/>
+      <c r="I60" s="18">
+        <f>SUMPRODUCT(I2:I56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="J60" s="18">
+        <f>SUMPRODUCT(J2:J56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="K60" s="18">
+        <f>SUMPRODUCT(K2:K56,AC2:AC56)</f>
+        <v/>
+      </c>
+      <c r="M60" s="18">
+        <f>(I60+4*J60+K60)/6</f>
+        <v/>
+      </c>
+      <c r="N60" s="19">
+        <f>(M60/M57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="C62" s="13">
-        <f>SQRT(K57)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="19" t="s">
-        <v>57</v>
+        <f>SQRT(O57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C63" s="13" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="17" t="s"/>
-      <c r="C64" s="18">
-        <f>I57-2*C62</f>
-        <v/>
-      </c>
-      <c r="D64" s="20">
-        <f>C64*C63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:52">
       <c r="A65" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B65" s="17" t="s"/>
       <c r="C65" s="18">
-        <f>I57+2*C62</f>
-        <v/>
-      </c>
-      <c r="D65" s="20">
+        <f>M57-2*C62</f>
+        <v/>
+      </c>
+      <c r="D65" s="17" t="s"/>
+      <c r="E65" s="17" t="s"/>
+      <c r="F65" s="17" t="s"/>
+      <c r="G65" s="17" t="s"/>
+      <c r="H65" s="21">
         <f>C65*C63</f>
         <v/>
       </c>
     </row>
+    <row r="66" spans="1:52">
+      <c r="A66" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="17" t="s"/>
+      <c r="C66" s="18">
+        <f>M57+2*C62</f>
+        <v/>
+      </c>
+      <c r="D66" s="17" t="s"/>
+      <c r="E66" s="17" t="s"/>
+      <c r="F66" s="17" t="s"/>
+      <c r="G66" s="17" t="s"/>
+      <c r="H66" s="21">
+        <f>C66*C63</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K56"/>
+  <autoFilter ref="A1:O56"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showErrorMessage="1" showInputMessage="1" sqref="B2:B56" type="list">
-      <formula1>$Z$1:$Z$3</formula1>
+      <formula1>$AZ$1:$AZ$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -48,13 +48,7 @@
     <t>Sq</t>
   </si>
   <si>
-    <t>(adm)</t>
-  </si>
-  <si>
-    <t>(analysis)</t>
-  </si>
-  <si>
-    <t>(coding)</t>
+    <t>Role</t>
   </si>
   <si>
     <t>Stage 1: Implement the Idea</t>
@@ -192,7 +186,7 @@
     <t>Standard deviation</t>
   </si>
   <si>
-    <t>O</t>
+    <t>K</t>
   </si>
   <si>
     <t>Min (P=95%)</t>
@@ -654,9 +648,7 @@
     <col customWidth="1" max="13" min="13" style="4" width="8"/>
     <col customWidth="1" max="14" min="14" style="4" width="8"/>
     <col customWidth="1" max="15" min="15" style="4" width="8"/>
-    <col customWidth="1" hidden="1" max="27" min="27" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="28" min="28" style="1" width="10"/>
-    <col customWidth="1" hidden="1" max="29" min="29" style="1" width="10"/>
+    <col customWidth="1" hidden="1" max="16" min="16" style="1" width="3"/>
     <col hidden="1" max="52" min="52"/>
   </cols>
   <sheetData>
@@ -696,20 +688,14 @@
       <c r="O1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="AZ1" s="2" t="s"/>
     </row>
     <row r="2" spans="1:52">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s"/>
       <c r="C2" s="6" t="s"/>
@@ -718,7 +704,7 @@
       <c r="F2" s="6" t="s"/>
       <c r="G2" s="6" t="s"/>
       <c r="H2" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9">
         <f>I3+I12+I17+I19</f>
@@ -736,13 +722,14 @@
       <c r="M2" s="6" t="s"/>
       <c r="N2" s="6" t="s"/>
       <c r="O2" s="6" t="s"/>
+      <c r="P2" s="6" t="s"/>
       <c r="AZ2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:52">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="11" t="s"/>
       <c r="C3" s="10" t="s"/>
@@ -767,13 +754,14 @@
       <c r="M3" s="10" t="s"/>
       <c r="N3" s="10" t="s"/>
       <c r="O3" s="10" t="s"/>
+      <c r="P3" s="10" t="s"/>
       <c r="AZ3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1</v>
@@ -809,10 +797,11 @@
         <f>N4*N4</f>
         <v/>
       </c>
+      <c r="P4" s="1" t="s"/>
     </row>
     <row hidden="1" r="5" spans="1:52">
       <c r="A5" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>0</v>
@@ -832,13 +821,14 @@
       <c r="K5" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>1</v>
+      <c r="P5" s="4">
+        <f>TRIM(A5)</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1</v>
@@ -874,10 +864,11 @@
         <f>N6*N6</f>
         <v/>
       </c>
+      <c r="P6" s="1" t="s"/>
     </row>
     <row hidden="1" r="7" spans="1:52">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="15" t="n">
         <v>0</v>
@@ -897,13 +888,14 @@
       <c r="K7" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AB7" s="4" t="n">
-        <v>1</v>
+      <c r="P7" s="4">
+        <f>TRIM(A7)</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
@@ -939,10 +931,11 @@
         <f>N8*N8</f>
         <v/>
       </c>
+      <c r="P8" s="1" t="s"/>
     </row>
     <row hidden="1" r="9" spans="1:52">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>0</v>
@@ -962,13 +955,14 @@
       <c r="K9" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AB9" s="4" t="n">
-        <v>1</v>
+      <c r="P9" s="4">
+        <f>TRIM(A9)</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1</v>
@@ -1004,10 +998,11 @@
         <f>N10*N10</f>
         <v/>
       </c>
+      <c r="P10" s="1" t="s"/>
     </row>
     <row hidden="1" r="11" spans="1:52">
       <c r="A11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="15" t="n">
         <v>0</v>
@@ -1027,13 +1022,14 @@
       <c r="K11" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AB11" s="4" t="n">
-        <v>1</v>
+      <c r="P11" s="4">
+        <f>TRIM(A11)</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="11" t="s"/>
       <c r="C12" s="10" t="s"/>
@@ -1058,10 +1054,11 @@
       <c r="M12" s="10" t="s"/>
       <c r="N12" s="10" t="s"/>
       <c r="O12" s="10" t="s"/>
+      <c r="P12" s="10" t="s"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>1</v>
@@ -1097,10 +1094,11 @@
         <f>N13*N13</f>
         <v/>
       </c>
+      <c r="P13" s="1" t="s"/>
     </row>
     <row hidden="1" r="14" spans="1:52">
       <c r="A14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="15" t="n">
         <v>0</v>
@@ -1120,13 +1118,14 @@
       <c r="K14" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AC14" s="4" t="n">
-        <v>1</v>
+      <c r="P14" s="4">
+        <f>TRIM(A14)</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>1</v>
@@ -1162,10 +1161,11 @@
         <f>N15*N15</f>
         <v/>
       </c>
+      <c r="P15" s="1" t="s"/>
     </row>
     <row hidden="1" r="16" spans="1:52">
       <c r="A16" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="15" t="n">
         <v>0</v>
@@ -1185,13 +1185,14 @@
       <c r="K16" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AC16" s="4" t="n">
-        <v>1</v>
+      <c r="P16" s="4">
+        <f>TRIM(A16)</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1</v>
@@ -1227,10 +1228,11 @@
         <f>N17*N17</f>
         <v/>
       </c>
+      <c r="P17" s="1" t="s"/>
     </row>
     <row hidden="1" r="18" spans="1:52">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="15" t="n">
         <v>0</v>
@@ -1250,13 +1252,14 @@
       <c r="K18" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AB18" s="4" t="n">
-        <v>1</v>
+      <c r="P18" s="4">
+        <f>TRIM(A18)</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1</v>
@@ -1292,10 +1295,11 @@
         <f>N19*N19</f>
         <v/>
       </c>
+      <c r="P19" s="1" t="s"/>
     </row>
     <row hidden="1" r="20" spans="1:52">
       <c r="A20" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="15" t="n">
         <v>0</v>
@@ -1315,13 +1319,14 @@
       <c r="K20" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB20" s="4" t="n">
-        <v>1</v>
+      <c r="P20" s="4">
+        <f>TRIM(A20)</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7" t="s"/>
       <c r="C21" s="6" t="s"/>
@@ -1330,7 +1335,7 @@
       <c r="F21" s="6" t="s"/>
       <c r="G21" s="6" t="s"/>
       <c r="H21" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9">
         <f>I22+I29+I32</f>
@@ -1348,10 +1353,11 @@
       <c r="M21" s="6" t="s"/>
       <c r="N21" s="6" t="s"/>
       <c r="O21" s="6" t="s"/>
+      <c r="P21" s="6" t="s"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="11" t="s"/>
       <c r="C22" s="10" t="s"/>
@@ -1360,7 +1366,7 @@
       <c r="F22" s="10" t="s"/>
       <c r="G22" s="10" t="s"/>
       <c r="H22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I22" s="12">
         <f>I23+I25+I27</f>
@@ -1378,10 +1384,11 @@
       <c r="M22" s="10" t="s"/>
       <c r="N22" s="10" t="s"/>
       <c r="O22" s="10" t="s"/>
+      <c r="P22" s="10" t="s"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>1</v>
@@ -1417,10 +1424,11 @@
         <f>N23*N23</f>
         <v/>
       </c>
+      <c r="P23" s="1" t="s"/>
     </row>
     <row hidden="1" r="24" spans="1:52">
       <c r="A24" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="15" t="n">
         <v>0</v>
@@ -1440,13 +1448,14 @@
       <c r="K24" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="AB24" s="4" t="n">
-        <v>1</v>
+      <c r="P24" s="4">
+        <f>TRIM(A24)</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>1</v>
@@ -1482,10 +1491,11 @@
         <f>N25*N25</f>
         <v/>
       </c>
+      <c r="P25" s="1" t="s"/>
     </row>
     <row hidden="1" r="26" spans="1:52">
       <c r="A26" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B26" s="15" t="n">
         <v>0</v>
@@ -1505,13 +1515,14 @@
       <c r="K26" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AB26" s="4" t="n">
-        <v>1</v>
+      <c r="P26" s="4">
+        <f>TRIM(A26)</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1</v>
@@ -1547,10 +1558,11 @@
         <f>N27*N27</f>
         <v/>
       </c>
+      <c r="P27" s="1" t="s"/>
     </row>
     <row hidden="1" r="28" spans="1:52">
       <c r="A28" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="15" t="n">
         <v>0</v>
@@ -1570,13 +1582,14 @@
       <c r="K28" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB28" s="4" t="n">
-        <v>1</v>
+      <c r="P28" s="4">
+        <f>TRIM(A28)</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1</v>
@@ -1612,10 +1625,11 @@
         <f>N29*N29</f>
         <v/>
       </c>
+      <c r="P29" s="1" t="s"/>
     </row>
     <row hidden="1" r="30" spans="1:52">
       <c r="A30" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="15" t="n">
         <v>0</v>
@@ -1635,13 +1649,14 @@
       <c r="K30" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB30" s="4" t="n">
-        <v>1</v>
+      <c r="P30" s="4">
+        <f>TRIM(A30)</f>
+        <v/>
       </c>
     </row>
     <row hidden="1" r="31" spans="1:52">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="15" t="n">
         <v>0</v>
@@ -1661,13 +1676,14 @@
       <c r="K31" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="AC31" s="4" t="n">
-        <v>1</v>
+      <c r="P31" s="4">
+        <f>TRIM(A31)</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
@@ -1703,10 +1719,11 @@
         <f>N32*N32</f>
         <v/>
       </c>
+      <c r="P32" s="1" t="s"/>
     </row>
     <row hidden="1" r="33" spans="1:52">
       <c r="A33" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33" s="15" t="n">
         <v>0</v>
@@ -1726,13 +1743,14 @@
       <c r="K33" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB33" s="4" t="n">
-        <v>1</v>
+      <c r="P33" s="4">
+        <f>TRIM(A33)</f>
+        <v/>
       </c>
     </row>
     <row hidden="1" r="34" spans="1:52">
       <c r="A34" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="15" t="n">
         <v>0</v>
@@ -1752,13 +1770,14 @@
       <c r="K34" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AC34" s="4" t="n">
-        <v>1</v>
+      <c r="P34" s="4">
+        <f>TRIM(A34)</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35" s="7" t="s"/>
       <c r="C35" s="6" t="s"/>
@@ -1767,7 +1786,7 @@
       <c r="F35" s="6" t="s"/>
       <c r="G35" s="6" t="s"/>
       <c r="H35" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9">
         <f>I36+I41+I43+I45+I47</f>
@@ -1785,10 +1804,11 @@
       <c r="M35" s="6" t="s"/>
       <c r="N35" s="6" t="s"/>
       <c r="O35" s="6" t="s"/>
+      <c r="P35" s="6" t="s"/>
     </row>
     <row r="36" spans="1:52">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="11" t="s"/>
       <c r="C36" s="10" t="s"/>
@@ -1813,10 +1833,11 @@
       <c r="M36" s="10" t="s"/>
       <c r="N36" s="10" t="s"/>
       <c r="O36" s="10" t="s"/>
+      <c r="P36" s="10" t="s"/>
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1</v>
@@ -1852,10 +1873,11 @@
         <f>N37*N37</f>
         <v/>
       </c>
+      <c r="P37" s="1" t="s"/>
     </row>
     <row hidden="1" r="38" spans="1:52">
       <c r="A38" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38" s="15" t="n">
         <v>0</v>
@@ -1875,13 +1897,14 @@
       <c r="K38" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AC38" s="4" t="n">
-        <v>1</v>
+      <c r="P38" s="4">
+        <f>TRIM(A38)</f>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:52">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1</v>
@@ -1917,10 +1940,11 @@
         <f>N39*N39</f>
         <v/>
       </c>
+      <c r="P39" s="1" t="s"/>
     </row>
     <row hidden="1" r="40" spans="1:52">
       <c r="A40" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="15" t="n">
         <v>0</v>
@@ -1940,13 +1964,14 @@
       <c r="K40" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AC40" s="4" t="n">
-        <v>1</v>
+      <c r="P40" s="4">
+        <f>TRIM(A40)</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:52">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>1</v>
@@ -1982,10 +2007,11 @@
         <f>N41*N41</f>
         <v/>
       </c>
+      <c r="P41" s="1" t="s"/>
     </row>
     <row hidden="1" r="42" spans="1:52">
       <c r="A42" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="15" t="n">
         <v>0</v>
@@ -2005,13 +2031,14 @@
       <c r="K42" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AA42" s="4" t="n">
-        <v>1</v>
+      <c r="P42" s="4">
+        <f>TRIM(A42)</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>1</v>
@@ -2047,10 +2074,11 @@
         <f>N43*N43</f>
         <v/>
       </c>
+      <c r="P43" s="1" t="s"/>
     </row>
     <row hidden="1" r="44" spans="1:52">
       <c r="A44" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="15" t="n">
         <v>0</v>
@@ -2070,13 +2098,14 @@
       <c r="K44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AB44" s="4" t="n">
-        <v>1</v>
+      <c r="P44" s="4">
+        <f>TRIM(A44)</f>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:52">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>1</v>
@@ -2112,10 +2141,11 @@
         <f>N45*N45</f>
         <v/>
       </c>
+      <c r="P45" s="1" t="s"/>
     </row>
     <row hidden="1" r="46" spans="1:52">
       <c r="A46" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="15" t="n">
         <v>0</v>
@@ -2135,13 +2165,14 @@
       <c r="K46" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB46" s="4" t="n">
-        <v>1</v>
+      <c r="P46" s="4">
+        <f>TRIM(A46)</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:52">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1</v>
@@ -2152,7 +2183,7 @@
       <c r="F47" s="1" t="s"/>
       <c r="G47" s="1" t="s"/>
       <c r="H47" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I47" s="13">
         <f>I48</f>
@@ -2179,10 +2210,11 @@
         <f>N47*N47</f>
         <v/>
       </c>
+      <c r="P47" s="1" t="s"/>
     </row>
     <row hidden="1" r="48" spans="1:52">
       <c r="A48" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B48" s="15" t="n">
         <v>0</v>
@@ -2202,13 +2234,14 @@
       <c r="K48" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AB48" s="4" t="n">
-        <v>1</v>
+      <c r="P48" s="4">
+        <f>TRIM(A48)</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7" t="s"/>
       <c r="C49" s="6" t="s"/>
@@ -2217,7 +2250,7 @@
       <c r="F49" s="6" t="s"/>
       <c r="G49" s="6" t="s"/>
       <c r="H49" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9">
         <f>I50+I52+I54</f>
@@ -2235,10 +2268,11 @@
       <c r="M49" s="6" t="s"/>
       <c r="N49" s="6" t="s"/>
       <c r="O49" s="6" t="s"/>
+      <c r="P49" s="6" t="s"/>
     </row>
     <row r="50" spans="1:52">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>1</v>
@@ -2274,10 +2308,11 @@
         <f>N50*N50</f>
         <v/>
       </c>
+      <c r="P50" s="1" t="s"/>
     </row>
     <row hidden="1" r="51" spans="1:52">
       <c r="A51" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" s="15" t="n">
         <v>0</v>
@@ -2297,13 +2332,14 @@
       <c r="K51" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="AB51" s="4" t="n">
-        <v>1</v>
+      <c r="P51" s="4">
+        <f>TRIM(A51)</f>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:52">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>1</v>
@@ -2339,10 +2375,11 @@
         <f>N52*N52</f>
         <v/>
       </c>
+      <c r="P52" s="1" t="s"/>
     </row>
     <row hidden="1" r="53" spans="1:52">
       <c r="A53" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B53" s="15" t="n">
         <v>0</v>
@@ -2362,13 +2399,14 @@
       <c r="K53" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="AB53" s="4" t="n">
-        <v>1</v>
+      <c r="P53" s="4">
+        <f>TRIM(A53)</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:52">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>1</v>
@@ -2404,10 +2442,11 @@
         <f>N54*N54</f>
         <v/>
       </c>
+      <c r="P54" s="1" t="s"/>
     </row>
     <row hidden="1" r="55" spans="1:52">
       <c r="A55" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B55" s="15" t="n">
         <v>0</v>
@@ -2427,13 +2466,14 @@
       <c r="K55" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="AC55" s="4" t="n">
-        <v>1</v>
+      <c r="P55" s="4">
+        <f>TRIM(A55)</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:52">
       <c r="A57" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="17" t="s"/>
       <c r="C57" s="17" t="s"/>
@@ -2443,34 +2483,34 @@
       <c r="G57" s="17" t="s"/>
       <c r="H57" s="17" t="s"/>
       <c r="I57" s="18">
-        <f>SUMPRODUCT(I2:I56,B2:B56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="J57" s="18">
-        <f>SUMPRODUCT(J2:J56,B2:B56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="K57" s="18">
-        <f>SUMPRODUCT(K2:K56,B2:B56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="L57" s="17" t="s"/>
       <c r="M57" s="18">
-        <f>SUMPRODUCT(M2:M56,B2:B56)</f>
+        <f>SUMIFS(M2:M56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="N57" s="18">
-        <f>SUMPRODUCT(N2:N56,B2:B56)</f>
+        <f>SUMIFS(N2:N56,B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="O57" s="18">
-        <f>SUMPRODUCT(O2:O56,B2:B56)</f>
+        <f>SUMIFS(O2:O56,B2:B56,"=1")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:52">
       <c r="A58" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58" s="17" t="s"/>
       <c r="C58" s="17" t="s"/>
@@ -2480,15 +2520,15 @@
       <c r="G58" s="17" t="s"/>
       <c r="H58" s="17" t="s"/>
       <c r="I58" s="18">
-        <f>SUMPRODUCT(I2:I56,AA2:AA56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J58" s="18">
-        <f>SUMPRODUCT(J2:J56,AA2:AA56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K58" s="18">
-        <f>SUMPRODUCT(K2:K56,AA2:AA56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M58" s="18">
@@ -2502,7 +2542,7 @@
     </row>
     <row r="59" spans="1:52">
       <c r="A59" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B59" s="17" t="s"/>
       <c r="C59" s="17" t="s"/>
@@ -2512,15 +2552,15 @@
       <c r="G59" s="17" t="s"/>
       <c r="H59" s="17" t="s"/>
       <c r="I59" s="18">
-        <f>SUMPRODUCT(I2:I56,AB2:AB56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J59" s="18">
-        <f>SUMPRODUCT(J2:J56,AB2:AB56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K59" s="18">
-        <f>SUMPRODUCT(K2:K56,AB2:AB56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M59" s="18">
@@ -2534,7 +2574,7 @@
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" s="17" t="s"/>
       <c r="C60" s="17" t="s"/>
@@ -2544,15 +2584,15 @@
       <c r="G60" s="17" t="s"/>
       <c r="H60" s="17" t="s"/>
       <c r="I60" s="18">
-        <f>SUMPRODUCT(I2:I56,AC2:AC56)</f>
+        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="J60" s="18">
-        <f>SUMPRODUCT(J2:J56,AC2:AC56)</f>
+        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="K60" s="18">
-        <f>SUMPRODUCT(K2:K56,AC2:AC56)</f>
+        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="M60" s="18">
@@ -2566,7 +2606,7 @@
     </row>
     <row r="62" spans="1:52">
       <c r="A62" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C62" s="13">
         <f>SQRT(O57)</f>
@@ -2575,7 +2615,7 @@
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C63" s="13" t="n">
         <v>1.5</v>
@@ -2583,7 +2623,7 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="17" t="s"/>
       <c r="C65" s="18">
@@ -2601,7 +2641,7 @@
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" s="17" t="s"/>
       <c r="C66" s="18">

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -633,13 +633,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="40"/>
+    <col customWidth="1" max="1" min="1" style="1" width="50"/>
     <col customWidth="1" hidden="1" max="2" min="2" style="2" width="3"/>
     <col customWidth="1" max="3" min="3" style="1" width="8"/>
-    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="10"/>
-    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="20"/>
-    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="20"/>
+    <col customWidth="1" hidden="1" max="4" min="4" style="3" width="50"/>
+    <col customWidth="1" hidden="1" max="5" min="5" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="6" min="6" style="3" width="10"/>
+    <col customWidth="1" hidden="1" max="7" min="7" style="3" width="10"/>
     <col customWidth="1" max="8" min="8" style="3" width="50"/>
     <col customWidth="1" max="9" min="9" style="4" width="8"/>
     <col customWidth="1" max="10" min="10" style="4" width="8"/>
@@ -821,7 +821,7 @@
       <c r="K5" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="16">
         <f>TRIM(A5)</f>
         <v/>
       </c>
@@ -888,7 +888,7 @@
       <c r="K7" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="16">
         <f>TRIM(A7)</f>
         <v/>
       </c>
@@ -955,7 +955,7 @@
       <c r="K9" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="16">
         <f>TRIM(A9)</f>
         <v/>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="K11" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="16">
         <f>TRIM(A11)</f>
         <v/>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="K14" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="16">
         <f>TRIM(A14)</f>
         <v/>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="K16" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="16">
         <f>TRIM(A16)</f>
         <v/>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="K18" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="16">
         <f>TRIM(A18)</f>
         <v/>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="K20" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="16">
         <f>TRIM(A20)</f>
         <v/>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="K24" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="16">
         <f>TRIM(A24)</f>
         <v/>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="K26" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="16">
         <f>TRIM(A26)</f>
         <v/>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="K28" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="16">
         <f>TRIM(A28)</f>
         <v/>
       </c>
@@ -1649,7 +1649,7 @@
       <c r="K30" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="16">
         <f>TRIM(A30)</f>
         <v/>
       </c>
@@ -1676,7 +1676,7 @@
       <c r="K31" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="16">
         <f>TRIM(A31)</f>
         <v/>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="K33" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="16">
         <f>TRIM(A33)</f>
         <v/>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="K34" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="16">
         <f>TRIM(A34)</f>
         <v/>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="K38" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="16">
         <f>TRIM(A38)</f>
         <v/>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="K40" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="16">
         <f>TRIM(A40)</f>
         <v/>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="K42" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="16">
         <f>TRIM(A42)</f>
         <v/>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="K44" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="16">
         <f>TRIM(A44)</f>
         <v/>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="K46" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="16">
         <f>TRIM(A46)</f>
         <v/>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="K48" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="16">
         <f>TRIM(A48)</f>
         <v/>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="K51" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="16">
         <f>TRIM(A51)</f>
         <v/>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="K53" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="16">
         <f>TRIM(A53)</f>
         <v/>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="K55" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="16">
         <f>TRIM(A55)</f>
         <v/>
       </c>
@@ -2610,6 +2610,10 @@
       </c>
       <c r="C62" s="13">
         <f>SQRT(O57)</f>
+        <v/>
+      </c>
+      <c r="H62" s="19">
+        <f>C62/M57</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Task / Subtask</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>Min (P=95%)</t>
   </si>
   <si>
     <t>Max (P=95%)</t>
@@ -263,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -319,10 +316,13 @@
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2483,28 +2483,28 @@
       <c r="G57" s="17" t="s"/>
       <c r="H57" s="17" t="s"/>
       <c r="I57" s="18">
-        <f>SUMIFS(I2:I56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="J57" s="18">
-        <f>SUMIFS(J2:J56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="K57" s="18">
-        <f>SUMIFS(K2:K56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="L57" s="17" t="s"/>
       <c r="M57" s="18">
-        <f>SUMIFS(M2:M56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!M2:M56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="N57" s="18">
-        <f>SUMIFS(N2:N56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!N2:N56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
       <c r="O57" s="18">
-        <f>SUMIFS(O2:O56,B2:B56,"=1")</f>
+        <f>SUMIFS(Estimates!O2:O56,Estimates!B2:B56,"=1")</f>
         <v/>
       </c>
     </row>
@@ -2520,15 +2520,15 @@
       <c r="G58" s="17" t="s"/>
       <c r="H58" s="17" t="s"/>
       <c r="I58" s="18">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J58" s="18">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K58" s="18">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(adm)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M58" s="18">
@@ -2536,7 +2536,7 @@
         <v/>
       </c>
       <c r="N58" s="19">
-        <f>(M58/M57)</f>
+        <f>(M58/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2552,15 +2552,15 @@
       <c r="G59" s="17" t="s"/>
       <c r="H59" s="17" t="s"/>
       <c r="I59" s="18">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J59" s="18">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K59" s="18">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M59" s="18">
@@ -2568,7 +2568,7 @@
         <v/>
       </c>
       <c r="N59" s="19">
-        <f>(M59/M57)</f>
+        <f>(M59/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2584,15 +2584,15 @@
       <c r="G60" s="17" t="s"/>
       <c r="H60" s="17" t="s"/>
       <c r="I60" s="18">
-        <f>SUMIFS(I2:I56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="J60" s="18">
-        <f>SUMIFS(J2:J56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="K60" s="18">
-        <f>SUMIFS(K2:K56,B2:B56,"=0",P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
         <v/>
       </c>
       <c r="M60" s="18">
@@ -2600,7 +2600,7 @@
         <v/>
       </c>
       <c r="N60" s="19">
-        <f>(M60/M57)</f>
+        <f>(M60/Estimates!M57)</f>
         <v/>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
         <f>SQRT(O57)</f>
         <v/>
       </c>
-      <c r="H62" s="19">
+      <c r="H62" s="21">
         <f>C62/M57</f>
         <v/>
       </c>
@@ -2627,25 +2627,25 @@
     </row>
     <row r="65" spans="1:52">
       <c r="A65" s="17" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B65" s="17" t="s"/>
       <c r="C65" s="18">
-        <f>M57-2*C62</f>
+        <f>M57-1*C62</f>
         <v/>
       </c>
       <c r="D65" s="17" t="s"/>
       <c r="E65" s="17" t="s"/>
       <c r="F65" s="17" t="s"/>
       <c r="G65" s="17" t="s"/>
-      <c r="H65" s="21">
-        <f>C65*C63</f>
+      <c r="H65" s="22">
+        <f>C65*Estimates!C63</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66" s="17" t="s"/>
       <c r="C66" s="18">
@@ -2656,8 +2656,8 @@
       <c r="E66" s="17" t="s"/>
       <c r="F66" s="17" t="s"/>
       <c r="G66" s="17" t="s"/>
-      <c r="H66" s="21">
-        <f>C66*C63</f>
+      <c r="H66" s="22">
+        <f>C66*Estimates!C63</f>
         <v/>
       </c>
     </row>

--- a/example/Estimation Tool.mm.light.xlsx
+++ b/example/Estimation Tool.mm.light.xlsx
@@ -625,7 +625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ66"/>
+  <dimension ref="A1:AZ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2508,41 +2508,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:52">
-      <c r="A58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="17" t="s"/>
-      <c r="C58" s="17" t="s"/>
-      <c r="D58" s="17" t="s"/>
-      <c r="E58" s="17" t="s"/>
-      <c r="F58" s="17" t="s"/>
-      <c r="G58" s="17" t="s"/>
-      <c r="H58" s="17" t="s"/>
-      <c r="I58" s="18">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="J58" s="18">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="K58" s="18">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
-        <v/>
-      </c>
-      <c r="M58" s="18">
-        <f>(I58+4*J58+K58)/6</f>
-        <v/>
-      </c>
-      <c r="N58" s="19">
-        <f>(M58/Estimates!M57)</f>
-        <v/>
-      </c>
-    </row>
     <row r="59" spans="1:52">
       <c r="A59" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="17" t="s"/>
       <c r="C59" s="17" t="s"/>
@@ -2552,15 +2520,15 @@
       <c r="G59" s="17" t="s"/>
       <c r="H59" s="17" t="s"/>
       <c r="I59" s="18">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="J59" s="18">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="K59" s="18">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(adm)")</f>
         <v/>
       </c>
       <c r="M59" s="18">
@@ -2571,10 +2539,14 @@
         <f>(M59/Estimates!M57)</f>
         <v/>
       </c>
+      <c r="P59" s="2">
+        <f>IF(N59&gt;0, 1, 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:52">
       <c r="A60" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="17" t="s"/>
       <c r="C60" s="17" t="s"/>
@@ -2584,15 +2556,15 @@
       <c r="G60" s="17" t="s"/>
       <c r="H60" s="17" t="s"/>
       <c r="I60" s="18">
-        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="J60" s="18">
-        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="K60" s="18">
-        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(analysis)")</f>
         <v/>
       </c>
       <c r="M60" s="18">
@@ -2603,53 +2575,75 @@
         <f>(M60/Estimates!M57)</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:52">
-      <c r="A62" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="13">
-        <f>SQRT(O57)</f>
-        <v/>
-      </c>
-      <c r="H62" s="21">
-        <f>C62/M57</f>
+      <c r="P60" s="2">
+        <f>IF(N60&gt;0, 1, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="17" t="s"/>
+      <c r="C61" s="17" t="s"/>
+      <c r="D61" s="17" t="s"/>
+      <c r="E61" s="17" t="s"/>
+      <c r="F61" s="17" t="s"/>
+      <c r="G61" s="17" t="s"/>
+      <c r="H61" s="17" t="s"/>
+      <c r="I61" s="18">
+        <f>SUMIFS(Estimates!I2:I56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="J61" s="18">
+        <f>SUMIFS(Estimates!J2:J56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="K61" s="18">
+        <f>SUMIFS(Estimates!K2:K56,Estimates!B2:B56,"=0",Estimates!P2:P56,"(coding)")</f>
+        <v/>
+      </c>
+      <c r="M61" s="18">
+        <f>(I61+4*J61+K61)/6</f>
+        <v/>
+      </c>
+      <c r="N61" s="19">
+        <f>(M61/Estimates!M57)</f>
+        <v/>
+      </c>
+      <c r="P61" s="2">
+        <f>IF(N61&gt;0, 1, 0)</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:52">
       <c r="A63" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="13">
+        <f>SQRT(O57)</f>
+        <v/>
+      </c>
+      <c r="H63" s="21">
+        <f>C63/M57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="13" t="n">
+      <c r="C64" s="13" t="n">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:52">
-      <c r="A65" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="17" t="s"/>
-      <c r="C65" s="18">
-        <f>M57-1*C62</f>
-        <v/>
-      </c>
-      <c r="D65" s="17" t="s"/>
-      <c r="E65" s="17" t="s"/>
-      <c r="F65" s="17" t="s"/>
-      <c r="G65" s="17" t="s"/>
-      <c r="H65" s="22">
-        <f>C65*Estimates!C63</f>
-        <v/>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="A66" s="17" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B66" s="17" t="s"/>
       <c r="C66" s="18">
-        <f>M57+2*C62</f>
+        <f>M57-1*C63</f>
         <v/>
       </c>
       <c r="D66" s="17" t="s"/>
@@ -2657,7 +2651,25 @@
       <c r="F66" s="17" t="s"/>
       <c r="G66" s="17" t="s"/>
       <c r="H66" s="22">
-        <f>C66*Estimates!C63</f>
+        <f>C66*Estimates!C64</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
+      <c r="A67" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="17" t="s"/>
+      <c r="C67" s="18">
+        <f>M57+2*C63</f>
+        <v/>
+      </c>
+      <c r="D67" s="17" t="s"/>
+      <c r="E67" s="17" t="s"/>
+      <c r="F67" s="17" t="s"/>
+      <c r="G67" s="17" t="s"/>
+      <c r="H67" s="22">
+        <f>C67*Estimates!C64</f>
         <v/>
       </c>
     </row>
